--- a/Projects/CCRU_SAND/Data/KPIs_2018/FT PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/FT PoS 2018.xlsx
@@ -29,7 +29,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
@@ -44,9 +44,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="560">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -467,6 +468,9 @@
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000189301, 5449000235947</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
   </si>
   <si>
@@ -477,6 +481,9 @@
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000045720, 5449000236777</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Lemon - 1L</t>
@@ -1447,7 +1454,7 @@
     <t xml:space="preserve">Микс. Дверь: Фьюз Черный - 0.5л любой</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124, 5449000259455, 5449000235947, 5449000235770</t>
   </si>
   <si>
     <t xml:space="preserve">ANY Fuze Black 0.5L</t>
@@ -1923,7 +1930,7 @@
     <numFmt numFmtId="167" formatCode="0%"/>
     <numFmt numFmtId="168" formatCode="D\-MMM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1970,13 +1977,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2097,7 +2097,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2166,17 +2166,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2202,10 +2194,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2218,7 +2206,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2243,7 +2231,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -2307,54 +2295,53 @@
   <dimension ref="1:312"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="AC3" activeCellId="0" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8259109311741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.331983805668"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.67611336032389"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.1093117408907"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.165991902834"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.4817813765182"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.72064777327935"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0485829959514"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.36032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.1255060728745"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.0242914979757"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.1821862348178"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.7773279352227"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="24.4089068825911"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.3481781376518"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="12.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.2550607287449"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.6477732793522"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.2550607287449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9028340080972"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.0971659919028"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.2753036437247"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="21.6882591093117"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="21.2955465587045"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="28.5668016194332"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="22.9878542510121"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="24.8016194331984"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="25.1862348178138"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="15.5910931174089"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="115.34008097166"/>
-    <col collapsed="false" hidden="false" max="1006" min="44" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="1007" style="3" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="116.331983805668"/>
+    <col collapsed="false" hidden="false" max="1006" min="44" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="3" width="17.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2439,7 +2426,7 @@
       <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="5" t="s">
@@ -2566,7 +2553,7 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
-      <c r="AB2" s="12"/>
+      <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
@@ -2651,7 +2638,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="13" t="n">
         <v>5449000054227</v>
       </c>
       <c r="AC3" s="13" t="s">
@@ -2744,7 +2731,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="13" t="n">
         <v>54491472</v>
       </c>
       <c r="AC4" s="13" t="s">
@@ -2837,7 +2824,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="13" t="n">
         <v>5449000050939</v>
       </c>
       <c r="AC5" s="13" t="s">
@@ -2930,7 +2917,7 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="13" t="n">
         <v>5449000006271</v>
       </c>
       <c r="AC6" s="13" t="s">
@@ -3023,7 +3010,7 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="13" t="n">
         <v>5449000000996</v>
       </c>
       <c r="AC7" s="13" t="s">
@@ -3116,7 +3103,7 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
-      <c r="AB8" s="12" t="n">
+      <c r="AB8" s="13" t="n">
         <v>5449000000439</v>
       </c>
       <c r="AC8" s="13" t="s">
@@ -3209,7 +3196,7 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="13" t="n">
         <v>54491069</v>
       </c>
       <c r="AC9" s="13" t="s">
@@ -3302,7 +3289,7 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
-      <c r="AB10" s="12" t="n">
+      <c r="AB10" s="13" t="n">
         <v>40822938</v>
       </c>
       <c r="AC10" s="13" t="s">
@@ -3395,7 +3382,7 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="13" t="n">
         <v>5449000008046</v>
       </c>
       <c r="AC11" s="13" t="s">
@@ -3488,7 +3475,7 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="13" t="n">
         <v>5449000133328</v>
       </c>
       <c r="AC12" s="13" t="s">
@@ -3581,7 +3568,7 @@
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
-      <c r="AB13" s="12" t="n">
+      <c r="AB13" s="13" t="n">
         <v>5449000131836</v>
       </c>
       <c r="AC13" s="13" t="s">
@@ -3674,7 +3661,7 @@
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="13" t="n">
         <v>5449000000729</v>
       </c>
       <c r="AC14" s="13" t="s">
@@ -3767,7 +3754,7 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="13" t="n">
         <v>5449000000712</v>
       </c>
       <c r="AC15" s="13" t="s">
@@ -3860,7 +3847,7 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="13" t="n">
         <v>5449000020987</v>
       </c>
       <c r="AC16" s="13" t="s">
@@ -3953,7 +3940,7 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="13" t="n">
         <v>5449000213693</v>
       </c>
       <c r="AC17" s="13" t="s">
@@ -4046,7 +4033,7 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="13" t="n">
         <v>5449000012203</v>
       </c>
       <c r="AC18" s="13" t="s">
@@ -4139,7 +4126,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="13" t="n">
         <v>5449000052926</v>
       </c>
       <c r="AC19" s="13" t="s">
@@ -4232,7 +4219,7 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
-      <c r="AB20" s="12" t="n">
+      <c r="AB20" s="13" t="n">
         <v>5449000213631</v>
       </c>
       <c r="AC20" s="13" t="s">
@@ -4325,7 +4312,7 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
-      <c r="AB21" s="12" t="n">
+      <c r="AB21" s="13" t="n">
         <v>5449000000286</v>
       </c>
       <c r="AC21" s="13" t="s">
@@ -4410,7 +4397,7 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
-      <c r="AB22" s="12"/>
+      <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
@@ -4495,7 +4482,7 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
-      <c r="AB23" s="12" t="n">
+      <c r="AB23" s="13" t="n">
         <v>40822426</v>
       </c>
       <c r="AC23" s="13" t="s">
@@ -4588,7 +4575,7 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
-      <c r="AB24" s="12" t="n">
+      <c r="AB24" s="13" t="n">
         <v>90494406</v>
       </c>
       <c r="AC24" s="13" t="s">
@@ -4681,7 +4668,7 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
-      <c r="AB25" s="12" t="n">
+      <c r="AB25" s="13" t="n">
         <v>5449000005489</v>
       </c>
       <c r="AC25" s="13" t="s">
@@ -4774,7 +4761,7 @@
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
-      <c r="AB26" s="12" t="n">
+      <c r="AB26" s="13" t="n">
         <v>5449000152190</v>
       </c>
       <c r="AC26" s="13" t="s">
@@ -4859,7 +4846,7 @@
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
-      <c r="AB27" s="12"/>
+      <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
@@ -4944,7 +4931,7 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
-      <c r="AB28" s="12" t="n">
+      <c r="AB28" s="13" t="n">
         <v>5449000131768</v>
       </c>
       <c r="AC28" s="13" t="s">
@@ -5037,7 +5024,7 @@
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
-      <c r="AB29" s="12" t="n">
+      <c r="AB29" s="13" t="n">
         <v>5060335632906</v>
       </c>
       <c r="AC29" s="13" t="s">
@@ -5130,7 +5117,7 @@
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
-      <c r="AB30" s="12" t="n">
+      <c r="AB30" s="13" t="n">
         <v>5060466510869</v>
       </c>
       <c r="AC30" s="13" t="s">
@@ -5215,7 +5202,7 @@
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
-      <c r="AB31" s="12"/>
+      <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
@@ -5300,8 +5287,8 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
-      <c r="AB32" s="12" t="n">
-        <v>5449000189301</v>
+      <c r="AB32" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="AC32" s="13" t="s">
         <v>125</v>
@@ -5364,10 +5351,10 @@
         <v>30</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P33" s="14" t="n">
         <v>0.0089044</v>
@@ -5393,11 +5380,11 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
-      <c r="AB33" s="12" t="n">
+      <c r="AB33" s="13" t="n">
         <v>5449000233615</v>
       </c>
       <c r="AC33" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
@@ -5457,10 +5444,10 @@
         <v>30</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P34" s="14" t="n">
         <v>0.0046556</v>
@@ -5486,11 +5473,11 @@
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
-      <c r="AB34" s="12" t="n">
-        <v>5449000045720</v>
+      <c r="AB34" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="AC34" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD34" s="9"/>
       <c r="AE34" s="9"/>
@@ -5550,10 +5537,10 @@
         <v>30</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P35" s="14" t="n">
         <v>0.004633</v>
@@ -5579,11 +5566,11 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
-      <c r="AB35" s="12" t="n">
+      <c r="AB35" s="13" t="n">
         <v>5449000189318</v>
       </c>
       <c r="AC35" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
@@ -5630,23 +5617,23 @@
         <v>48</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K36" s="9" t="n">
         <v>35</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="9" t="s">
@@ -5664,7 +5651,7 @@
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
-      <c r="AB36" s="12"/>
+      <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -5707,10 +5694,10 @@
         <v>48</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K37" s="9" t="n">
         <v>36</v>
@@ -5720,10 +5707,10 @@
         <v>35</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P37" s="14" t="n">
         <v>0.0115034</v>
@@ -5749,11 +5736,11 @@
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
-      <c r="AB37" s="12" t="n">
+      <c r="AB37" s="9" t="n">
         <v>4607042434877</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -5800,10 +5787,10 @@
         <v>48</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K38" s="9" t="n">
         <v>37</v>
@@ -5813,10 +5800,10 @@
         <v>35</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P38" s="14" t="n">
         <v>0.0115034</v>
@@ -5842,11 +5829,11 @@
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
-      <c r="AB38" s="12" t="n">
+      <c r="AB38" s="9" t="n">
         <v>4607042434891</v>
       </c>
       <c r="AC38" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AD38" s="9"/>
       <c r="AE38" s="9"/>
@@ -5893,10 +5880,10 @@
         <v>48</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K39" s="9" t="n">
         <v>38</v>
@@ -5906,10 +5893,10 @@
         <v>35</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P39" s="14" t="n">
         <v>0.0115034</v>
@@ -5935,11 +5922,11 @@
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
-      <c r="AB39" s="12" t="n">
+      <c r="AB39" s="9" t="n">
         <v>4607042438738</v>
       </c>
       <c r="AC39" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
@@ -5986,10 +5973,10 @@
         <v>48</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K40" s="9" t="n">
         <v>39</v>
@@ -5999,10 +5986,10 @@
         <v>35</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P40" s="14" t="n">
         <v>0.0115034</v>
@@ -6028,11 +6015,11 @@
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
-      <c r="AB40" s="12" t="n">
+      <c r="AB40" s="9" t="n">
         <v>4607042438950</v>
       </c>
       <c r="AC40" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD40" s="9"/>
       <c r="AE40" s="9"/>
@@ -6079,10 +6066,10 @@
         <v>48</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K41" s="9" t="n">
         <v>40</v>
@@ -6092,10 +6079,10 @@
         <v>35</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P41" s="14" t="n">
         <v>0.0115034</v>
@@ -6121,11 +6108,11 @@
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
-      <c r="AB41" s="12" t="n">
+      <c r="AB41" s="9" t="n">
         <v>4607042434884</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AD41" s="9"/>
       <c r="AE41" s="9"/>
@@ -6172,10 +6159,10 @@
         <v>48</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K42" s="9" t="n">
         <v>41</v>
@@ -6185,10 +6172,10 @@
         <v>35</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P42" s="14" t="n">
         <v>0.0115034</v>
@@ -6214,11 +6201,11 @@
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
-      <c r="AB42" s="12" t="n">
+      <c r="AB42" s="9" t="n">
         <v>4607174577787</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
@@ -6265,10 +6252,10 @@
         <v>48</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K43" s="9" t="n">
         <v>42</v>
@@ -6278,10 +6265,10 @@
         <v>35</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P43" s="14" t="n">
         <v>0.0115034</v>
@@ -6307,11 +6294,11 @@
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
-      <c r="AB43" s="12" t="n">
+      <c r="AB43" s="9" t="n">
         <v>4607042430619</v>
       </c>
       <c r="AC43" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AD43" s="9"/>
       <c r="AE43" s="9"/>
@@ -6358,10 +6345,10 @@
         <v>48</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K44" s="9" t="n">
         <v>43</v>
@@ -6371,10 +6358,10 @@
         <v>35</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P44" s="14" t="n">
         <v>0.0115034</v>
@@ -6400,11 +6387,11 @@
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
-      <c r="AB44" s="12" t="n">
+      <c r="AB44" s="9" t="n">
         <v>4607042430565</v>
       </c>
       <c r="AC44" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AD44" s="9"/>
       <c r="AE44" s="9"/>
@@ -6451,10 +6438,10 @@
         <v>48</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K45" s="9" t="n">
         <v>44</v>
@@ -6464,10 +6451,10 @@
         <v>35</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P45" s="14" t="n">
         <v>0.0089044</v>
@@ -6493,11 +6480,11 @@
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
-      <c r="AB45" s="12" t="n">
+      <c r="AB45" s="9" t="n">
         <v>4607174577794</v>
       </c>
       <c r="AC45" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AD45" s="9"/>
       <c r="AE45" s="9"/>
@@ -6544,10 +6531,10 @@
         <v>48</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K46" s="9" t="n">
         <v>45</v>
@@ -6557,10 +6544,10 @@
         <v>35</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P46" s="14" t="n">
         <v>0.0089044</v>
@@ -6586,11 +6573,11 @@
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
-      <c r="AB46" s="12" t="n">
+      <c r="AB46" s="9" t="n">
         <v>4607174577145</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
@@ -6637,10 +6624,10 @@
         <v>48</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K47" s="9" t="n">
         <v>46</v>
@@ -6650,10 +6637,10 @@
         <v>35</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P47" s="14" t="n">
         <v>0.0089044</v>
@@ -6679,11 +6666,11 @@
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
       <c r="AA47" s="9"/>
-      <c r="AB47" s="12" t="n">
+      <c r="AB47" s="9" t="n">
         <v>4607042431388</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AD47" s="9"/>
       <c r="AE47" s="9"/>
@@ -6730,10 +6717,10 @@
         <v>48</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K48" s="9" t="n">
         <v>47</v>
@@ -6743,10 +6730,10 @@
         <v>35</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P48" s="14" t="n">
         <v>0.0089044</v>
@@ -6772,11 +6759,11 @@
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
       <c r="AA48" s="9"/>
-      <c r="AB48" s="12" t="n">
+      <c r="AB48" s="9" t="n">
         <v>4607042431333</v>
       </c>
       <c r="AC48" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AD48" s="9"/>
       <c r="AE48" s="9"/>
@@ -6823,10 +6810,10 @@
         <v>48</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K49" s="9" t="n">
         <v>48</v>
@@ -6836,10 +6823,10 @@
         <v>35</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O49" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P49" s="14" t="n">
         <v>0.0046334</v>
@@ -6865,11 +6852,11 @@
       <c r="Y49" s="9"/>
       <c r="Z49" s="9"/>
       <c r="AA49" s="9"/>
-      <c r="AB49" s="12" t="n">
+      <c r="AB49" s="9" t="n">
         <v>4607174579729</v>
       </c>
       <c r="AC49" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD49" s="9"/>
       <c r="AE49" s="9"/>
@@ -6916,10 +6903,10 @@
         <v>48</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K50" s="9" t="n">
         <v>49</v>
@@ -6929,10 +6916,10 @@
         <v>35</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O50" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P50" s="14" t="n">
         <v>0.0046334</v>
@@ -6958,11 +6945,11 @@
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
-      <c r="AB50" s="12" t="n">
+      <c r="AB50" s="9" t="n">
         <v>4607174579309</v>
       </c>
       <c r="AC50" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AD50" s="9"/>
       <c r="AE50" s="9"/>
@@ -7009,10 +6996,10 @@
         <v>48</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K51" s="9" t="n">
         <v>50</v>
@@ -7022,10 +7009,10 @@
         <v>35</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P51" s="14" t="n">
         <v>0.0046334</v>
@@ -7051,11 +7038,11 @@
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
       <c r="AA51" s="9"/>
-      <c r="AB51" s="12" t="n">
+      <c r="AB51" s="9" t="n">
         <v>4607174579286</v>
       </c>
       <c r="AC51" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AD51" s="9"/>
       <c r="AE51" s="9"/>
@@ -7084,13 +7071,13 @@
         <v>43</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F52" s="9" t="n">
         <v>2</v>
@@ -7102,23 +7089,23 @@
         <v>48</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K52" s="9" t="n">
         <v>51</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P52" s="11"/>
       <c r="Q52" s="9" t="s">
@@ -7136,7 +7123,7 @@
       <c r="Y52" s="9"/>
       <c r="Z52" s="9"/>
       <c r="AA52" s="9"/>
-      <c r="AB52" s="12"/>
+      <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
       <c r="AD52" s="9"/>
       <c r="AE52" s="9"/>
@@ -7161,13 +7148,13 @@
         <v>43</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F53" s="9" t="n">
         <v>3</v>
@@ -7179,10 +7166,10 @@
         <v>48</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K53" s="9" t="n">
         <v>52</v>
@@ -7192,10 +7179,10 @@
         <v>51</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P53" s="14" t="n">
         <v>0.00455</v>
@@ -7221,11 +7208,11 @@
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
-      <c r="AB53" s="17" t="n">
+      <c r="AB53" s="16" t="n">
         <v>5449000214744</v>
       </c>
       <c r="AC53" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AD53" s="9"/>
       <c r="AE53" s="9"/>
@@ -7254,13 +7241,13 @@
         <v>43</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F54" s="9" t="n">
         <v>3</v>
@@ -7272,10 +7259,10 @@
         <v>48</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K54" s="9" t="n">
         <v>53</v>
@@ -7284,11 +7271,11 @@
       <c r="M54" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="N54" s="18" t="s">
-        <v>175</v>
+      <c r="N54" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P54" s="14" t="n">
         <v>0.004545</v>
@@ -7314,11 +7301,11 @@
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
-      <c r="AB54" s="19" t="n">
+      <c r="AB54" s="17" t="n">
         <v>5449000241467</v>
       </c>
-      <c r="AC54" s="18" t="s">
-        <v>175</v>
+      <c r="AC54" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="AD54" s="9"/>
       <c r="AE54" s="9"/>
@@ -7347,13 +7334,13 @@
         <v>43</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F55" s="9" t="n">
         <v>3</v>
@@ -7365,10 +7352,10 @@
         <v>48</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K55" s="9" t="n">
         <v>54</v>
@@ -7378,10 +7365,10 @@
         <v>51</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O55" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P55" s="14" t="n">
         <v>0.004545</v>
@@ -7407,11 +7394,11 @@
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
-      <c r="AB55" s="12" t="n">
-        <v>5449000134912</v>
+      <c r="AB55" s="13" t="n">
+        <v>4607042431692</v>
       </c>
       <c r="AC55" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AD55" s="9"/>
       <c r="AE55" s="9"/>
@@ -7440,13 +7427,13 @@
         <v>43</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F56" s="9" t="n">
         <v>3</v>
@@ -7458,10 +7445,10 @@
         <v>48</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K56" s="9" t="n">
         <v>55</v>
@@ -7471,10 +7458,10 @@
         <v>51</v>
       </c>
       <c r="N56" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P56" s="14" t="n">
         <v>0.004545</v>
@@ -7500,11 +7487,11 @@
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
-      <c r="AB56" s="12" t="n">
+      <c r="AB56" s="13" t="n">
         <v>5449000172228</v>
       </c>
       <c r="AC56" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
@@ -7533,13 +7520,13 @@
         <v>43</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F57" s="9" t="n">
         <v>3</v>
@@ -7551,10 +7538,10 @@
         <v>48</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K57" s="9" t="n">
         <v>56</v>
@@ -7564,10 +7551,10 @@
         <v>51</v>
       </c>
       <c r="N57" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P57" s="14" t="n">
         <v>0.004545</v>
@@ -7593,11 +7580,11 @@
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
-      <c r="AB57" s="12" t="n">
+      <c r="AB57" s="13" t="n">
         <v>5060517884710</v>
       </c>
       <c r="AC57" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AD57" s="9"/>
       <c r="AE57" s="9"/>
@@ -7626,13 +7613,13 @@
         <v>43</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F58" s="9" t="n">
         <v>3</v>
@@ -7644,10 +7631,10 @@
         <v>48</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K58" s="9" t="n">
         <v>57</v>
@@ -7657,10 +7644,10 @@
         <v>51</v>
       </c>
       <c r="N58" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P58" s="14" t="n">
         <v>0.004545</v>
@@ -7686,11 +7673,11 @@
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
-      <c r="AB58" s="12" t="n">
+      <c r="AB58" s="13" t="n">
         <v>5449000214263</v>
       </c>
       <c r="AC58" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
@@ -7719,13 +7706,13 @@
         <v>43</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F59" s="9" t="n">
         <v>3</v>
@@ -7737,10 +7724,10 @@
         <v>48</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K59" s="9" t="n">
         <v>58</v>
@@ -7750,10 +7737,10 @@
         <v>51</v>
       </c>
       <c r="N59" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P59" s="14" t="n">
         <v>0.004545</v>
@@ -7779,11 +7766,11 @@
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
-      <c r="AB59" s="12" t="n">
+      <c r="AB59" s="13" t="n">
         <v>4650075420980</v>
       </c>
       <c r="AC59" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AD59" s="9"/>
       <c r="AE59" s="9"/>
@@ -7812,13 +7799,13 @@
         <v>43</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F60" s="9" t="n">
         <v>3</v>
@@ -7830,10 +7817,10 @@
         <v>48</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K60" s="9" t="n">
         <v>59</v>
@@ -7843,10 +7830,10 @@
         <v>51</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P60" s="14" t="n">
         <v>0.004545</v>
@@ -7872,11 +7859,11 @@
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
-      <c r="AB60" s="12" t="n">
+      <c r="AB60" s="9" t="n">
         <v>4650075420287</v>
       </c>
       <c r="AC60" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD60" s="9"/>
       <c r="AE60" s="9"/>
@@ -7905,13 +7892,13 @@
         <v>43</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F61" s="9" t="n">
         <v>3</v>
@@ -7923,10 +7910,10 @@
         <v>48</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K61" s="9" t="n">
         <v>60</v>
@@ -7936,10 +7923,10 @@
         <v>51</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O61" s="13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P61" s="14" t="n">
         <v>0.004545</v>
@@ -7965,11 +7952,11 @@
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
-      <c r="AB61" s="12" t="n">
+      <c r="AB61" s="9" t="n">
         <v>4650075421147</v>
       </c>
       <c r="AC61" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AD61" s="9"/>
       <c r="AE61" s="9"/>
@@ -7998,13 +7985,13 @@
         <v>43</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F62" s="9" t="n">
         <v>3</v>
@@ -8016,10 +8003,10 @@
         <v>48</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K62" s="9" t="n">
         <v>61</v>
@@ -8029,10 +8016,10 @@
         <v>51</v>
       </c>
       <c r="N62" s="13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O62" s="13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P62" s="14" t="n">
         <v>0.004545</v>
@@ -8058,11 +8045,11 @@
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
-      <c r="AB62" s="12" t="n">
+      <c r="AB62" s="13" t="n">
         <v>4650075421970</v>
       </c>
       <c r="AC62" s="13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AD62" s="9"/>
       <c r="AE62" s="9"/>
@@ -8091,13 +8078,13 @@
         <v>43</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F63" s="9" t="n">
         <v>3</v>
@@ -8109,10 +8096,10 @@
         <v>48</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K63" s="9" t="n">
         <v>62</v>
@@ -8122,10 +8109,10 @@
         <v>51</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O63" s="13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P63" s="14" t="n">
         <v>0.004545</v>
@@ -8151,11 +8138,11 @@
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
-      <c r="AB63" s="12" t="n">
+      <c r="AB63" s="13" t="n">
         <v>4650075421956</v>
       </c>
       <c r="AC63" s="13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD63" s="9"/>
       <c r="AE63" s="9"/>
@@ -8184,13 +8171,13 @@
         <v>43</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F64" s="9" t="n">
         <v>2</v>
@@ -8202,23 +8189,23 @@
         <v>48</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K64" s="9" t="n">
         <v>63</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P64" s="11"/>
       <c r="Q64" s="9" t="s">
@@ -8236,7 +8223,7 @@
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
-      <c r="AB64" s="12"/>
+      <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
       <c r="AD64" s="9"/>
       <c r="AE64" s="9"/>
@@ -8261,13 +8248,13 @@
         <v>43</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F65" s="9" t="n">
         <v>3</v>
@@ -8279,10 +8266,10 @@
         <v>48</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K65" s="9" t="n">
         <v>64</v>
@@ -8292,10 +8279,10 @@
         <v>63</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O65" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P65" s="14" t="n">
         <v>0.003575</v>
@@ -8321,11 +8308,11 @@
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
-      <c r="AB65" s="12" t="n">
+      <c r="AB65" s="13" t="n">
         <v>5449000131805</v>
       </c>
       <c r="AC65" s="13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AD65" s="9"/>
       <c r="AE65" s="9"/>
@@ -8354,13 +8341,13 @@
         <v>43</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F66" s="9" t="n">
         <v>3</v>
@@ -8372,10 +8359,10 @@
         <v>48</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K66" s="9" t="n">
         <v>65</v>
@@ -8385,10 +8372,10 @@
         <v>63</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O66" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P66" s="14" t="n">
         <v>0.003575</v>
@@ -8414,11 +8401,11 @@
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
-      <c r="AB66" s="12" t="n">
+      <c r="AB66" s="13" t="n">
         <v>5449000044839</v>
       </c>
       <c r="AC66" s="13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AD66" s="9"/>
       <c r="AE66" s="9"/>
@@ -8447,13 +8434,13 @@
         <v>43</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F67" s="9" t="n">
         <v>3</v>
@@ -8465,10 +8452,10 @@
         <v>48</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K67" s="9" t="n">
         <v>66</v>
@@ -8478,10 +8465,10 @@
         <v>63</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P67" s="14" t="n">
         <v>0.003575</v>
@@ -8507,11 +8494,11 @@
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
-      <c r="AB67" s="12" t="n">
+      <c r="AB67" s="13" t="n">
         <v>54490130</v>
       </c>
       <c r="AC67" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AD67" s="9"/>
       <c r="AE67" s="9"/>
@@ -8540,13 +8527,13 @@
         <v>43</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F68" s="9" t="n">
         <v>3</v>
@@ -8558,10 +8545,10 @@
         <v>48</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K68" s="9" t="n">
         <v>67</v>
@@ -8571,10 +8558,10 @@
         <v>63</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P68" s="14" t="n">
         <v>0.003575</v>
@@ -8600,11 +8587,11 @@
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
-      <c r="AB68" s="12" t="n">
+      <c r="AB68" s="13" t="n">
         <v>5449000044808</v>
       </c>
       <c r="AC68" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AD68" s="9"/>
       <c r="AE68" s="9"/>
@@ -8633,13 +8620,13 @@
         <v>43</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F69" s="9" t="n">
         <v>3</v>
@@ -8651,10 +8638,10 @@
         <v>48</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K69" s="9" t="n">
         <v>68</v>
@@ -8664,10 +8651,10 @@
         <v>63</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O69" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P69" s="14" t="n">
         <v>0.00357</v>
@@ -8693,11 +8680,11 @@
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
-      <c r="AB69" s="12" t="n">
+      <c r="AB69" s="13" t="n">
         <v>5449000026583</v>
       </c>
       <c r="AC69" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AD69" s="9"/>
       <c r="AE69" s="9"/>
@@ -8726,13 +8713,13 @@
         <v>43</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F70" s="9" t="n">
         <v>3</v>
@@ -8744,10 +8731,10 @@
         <v>48</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K70" s="9" t="n">
         <v>69</v>
@@ -8757,10 +8744,10 @@
         <v>63</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P70" s="14" t="n">
         <v>0.00357</v>
@@ -8786,11 +8773,11 @@
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
-      <c r="AB70" s="12" t="n">
+      <c r="AB70" s="13" t="n">
         <v>5449000148056</v>
       </c>
       <c r="AC70" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AD70" s="9"/>
       <c r="AE70" s="9"/>
@@ -8819,13 +8806,13 @@
         <v>43</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F71" s="9" t="n">
         <v>3</v>
@@ -8837,10 +8824,10 @@
         <v>48</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K71" s="9" t="n">
         <v>70</v>
@@ -8850,10 +8837,10 @@
         <v>63</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O71" s="13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P71" s="14" t="n">
         <v>0.00357</v>
@@ -8879,11 +8866,11 @@
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
-      <c r="AB71" s="12" t="n">
+      <c r="AB71" s="13" t="n">
         <v>5449000233509</v>
       </c>
       <c r="AC71" s="13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AD71" s="9"/>
       <c r="AE71" s="9"/>
@@ -8912,13 +8899,13 @@
         <v>43</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F72" s="9" t="n">
         <v>3</v>
@@ -8930,10 +8917,10 @@
         <v>48</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K72" s="9" t="n">
         <v>71</v>
@@ -8943,10 +8930,10 @@
         <v>63</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P72" s="14" t="n">
         <v>0.00357</v>
@@ -8972,11 +8959,11 @@
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
-      <c r="AB72" s="12" t="n">
+      <c r="AB72" s="9" t="n">
         <v>4607174579736</v>
       </c>
       <c r="AC72" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AD72" s="9"/>
       <c r="AE72" s="9"/>
@@ -9005,13 +8992,13 @@
         <v>43</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F73" s="9" t="n">
         <v>3</v>
@@ -9023,10 +9010,10 @@
         <v>48</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K73" s="9" t="n">
         <v>72</v>
@@ -9036,10 +9023,10 @@
         <v>63</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O73" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P73" s="14" t="n">
         <v>0.00357</v>
@@ -9065,11 +9052,11 @@
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
-      <c r="AB73" s="12" t="n">
+      <c r="AB73" s="9" t="n">
         <v>4607042438967</v>
       </c>
       <c r="AC73" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AD73" s="9"/>
       <c r="AE73" s="9"/>
@@ -9098,13 +9085,13 @@
         <v>43</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F74" s="9" t="n">
         <v>3</v>
@@ -9116,10 +9103,10 @@
         <v>48</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K74" s="9" t="n">
         <v>73</v>
@@ -9129,10 +9116,10 @@
         <v>63</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P74" s="14" t="n">
         <v>0.00357</v>
@@ -9158,11 +9145,11 @@
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
-      <c r="AB74" s="12" t="n">
+      <c r="AB74" s="9" t="n">
         <v>4607042439216</v>
       </c>
       <c r="AC74" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AD74" s="9"/>
       <c r="AE74" s="9"/>
@@ -9191,13 +9178,13 @@
         <v>43</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F75" s="9" t="n">
         <v>3</v>
@@ -9209,10 +9196,10 @@
         <v>48</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K75" s="9" t="n">
         <v>74</v>
@@ -9222,10 +9209,10 @@
         <v>63</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O75" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P75" s="14" t="n">
         <v>0.00357</v>
@@ -9251,11 +9238,11 @@
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
-      <c r="AB75" s="12" t="n">
+      <c r="AB75" s="9" t="n">
         <v>4607042439223</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AD75" s="9"/>
       <c r="AE75" s="9"/>
@@ -9284,13 +9271,13 @@
         <v>43</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F76" s="9" t="n">
         <v>3</v>
@@ -9302,10 +9289,10 @@
         <v>48</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K76" s="9" t="n">
         <v>75</v>
@@ -9315,10 +9302,10 @@
         <v>63</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O76" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P76" s="14" t="n">
         <v>0.00357</v>
@@ -9344,11 +9331,11 @@
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
-      <c r="AB76" s="12" t="n">
+      <c r="AB76" s="9" t="n">
         <v>4607042439155</v>
       </c>
       <c r="AC76" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AD76" s="9"/>
       <c r="AE76" s="9"/>
@@ -9377,13 +9364,13 @@
         <v>43</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F77" s="9" t="n">
         <v>3</v>
@@ -9395,10 +9382,10 @@
         <v>48</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K77" s="9" t="n">
         <v>76</v>
@@ -9408,10 +9395,10 @@
         <v>63</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O77" s="13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P77" s="14" t="n">
         <v>0.00357</v>
@@ -9437,11 +9424,11 @@
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
-      <c r="AB77" s="12" t="n">
+      <c r="AB77" s="9" t="n">
         <v>4607174574908</v>
       </c>
       <c r="AC77" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AD77" s="9"/>
       <c r="AE77" s="9"/>
@@ -9470,13 +9457,13 @@
         <v>43</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F78" s="9" t="n">
         <v>3</v>
@@ -9488,10 +9475,10 @@
         <v>48</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K78" s="9" t="n">
         <v>77</v>
@@ -9501,10 +9488,10 @@
         <v>63</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O78" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P78" s="14" t="n">
         <v>0.00357</v>
@@ -9530,11 +9517,11 @@
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
-      <c r="AB78" s="12" t="n">
+      <c r="AB78" s="9" t="n">
         <v>4607174577947</v>
       </c>
       <c r="AC78" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AD78" s="9"/>
       <c r="AE78" s="9"/>
@@ -9563,7 +9550,7 @@
         <v>43</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>45</v>
@@ -9575,55 +9562,55 @@
         <v>2</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K79" s="9" t="n">
         <v>78</v>
       </c>
       <c r="L79" s="9"/>
-      <c r="M79" s="20"/>
+      <c r="M79" s="18"/>
       <c r="N79" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P79" s="14" t="n">
         <v>0.04</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U79" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V79" s="9"/>
       <c r="W79" s="9"/>
-      <c r="X79" s="21" t="n">
+      <c r="X79" s="19" t="n">
         <v>0.5</v>
       </c>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
-      <c r="AB79" s="12" t="s">
-        <v>238</v>
+      <c r="AB79" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="AC79" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD79" s="9"/>
       <c r="AE79" s="9"/>
@@ -9633,7 +9620,7 @@
       <c r="AI79" s="9"/>
       <c r="AJ79" s="9"/>
       <c r="AK79" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL79" s="9"/>
       <c r="AM79" s="9"/>
@@ -9650,7 +9637,7 @@
         <v>43</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>45</v>
@@ -9662,55 +9649,55 @@
         <v>2</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K80" s="9" t="n">
         <v>79</v>
       </c>
       <c r="L80" s="9"/>
-      <c r="M80" s="20"/>
+      <c r="M80" s="18"/>
       <c r="N80" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P80" s="14" t="n">
         <v>0.025</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U80" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
-      <c r="X80" s="21" t="n">
+      <c r="X80" s="19" t="n">
         <v>0.15</v>
       </c>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
-      <c r="AB80" s="12" t="s">
-        <v>246</v>
+      <c r="AB80" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="AC80" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD80" s="9"/>
       <c r="AE80" s="9"/>
@@ -9720,7 +9707,7 @@
       <c r="AI80" s="9"/>
       <c r="AJ80" s="9"/>
       <c r="AK80" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL80" s="9"/>
       <c r="AM80" s="9"/>
@@ -9737,7 +9724,7 @@
         <v>43</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>45</v>
@@ -9749,55 +9736,55 @@
         <v>2</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K81" s="9" t="n">
         <v>80</v>
       </c>
       <c r="L81" s="9"/>
-      <c r="M81" s="20"/>
+      <c r="M81" s="18"/>
       <c r="N81" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P81" s="14" t="n">
         <v>0.04</v>
       </c>
       <c r="Q81" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U81" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
-      <c r="X81" s="21" t="n">
+      <c r="X81" s="19" t="n">
         <v>0.4</v>
       </c>
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
-      <c r="AB81" s="12" t="s">
-        <v>252</v>
+      <c r="AB81" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="AC81" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD81" s="9"/>
       <c r="AE81" s="9"/>
@@ -9807,7 +9794,7 @@
       <c r="AI81" s="9"/>
       <c r="AJ81" s="9"/>
       <c r="AK81" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL81" s="9"/>
       <c r="AM81" s="9"/>
@@ -9824,7 +9811,7 @@
         <v>43</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>45</v>
@@ -9836,55 +9823,55 @@
         <v>2</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K82" s="9" t="n">
         <v>81</v>
       </c>
       <c r="L82" s="9"/>
-      <c r="M82" s="20"/>
+      <c r="M82" s="18"/>
       <c r="N82" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P82" s="14" t="n">
         <v>0.025</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U82" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
-      <c r="X82" s="21" t="n">
+      <c r="X82" s="19" t="n">
         <v>0.45</v>
       </c>
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
-      <c r="AB82" s="12" t="s">
-        <v>258</v>
+      <c r="AB82" s="9" t="s">
+        <v>260</v>
       </c>
       <c r="AC82" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD82" s="9"/>
       <c r="AE82" s="9"/>
@@ -9894,7 +9881,7 @@
       <c r="AI82" s="9"/>
       <c r="AJ82" s="9"/>
       <c r="AK82" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL82" s="9"/>
       <c r="AM82" s="9"/>
@@ -9911,7 +9898,7 @@
         <v>43</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>45</v>
@@ -9923,16 +9910,16 @@
         <v>2</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K83" s="9" t="n">
         <v>82</v>
@@ -9940,38 +9927,38 @@
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P83" s="14" t="n">
         <v>0.02</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
       <c r="T83" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U83" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
-      <c r="X83" s="21" t="n">
+      <c r="X83" s="19" t="n">
         <v>0.35</v>
       </c>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
-      <c r="AB83" s="12" t="s">
-        <v>264</v>
+      <c r="AB83" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="AC83" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD83" s="9"/>
       <c r="AE83" s="9"/>
@@ -9981,7 +9968,7 @@
       <c r="AI83" s="9"/>
       <c r="AJ83" s="9"/>
       <c r="AK83" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL83" s="9"/>
       <c r="AM83" s="9"/>
@@ -9998,7 +9985,7 @@
         <v>43</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>45</v>
@@ -10010,39 +9997,39 @@
         <v>2</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K84" s="9" t="n">
         <v>83</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P84" s="14" t="n">
         <v>0.024</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="R84" s="9"/>
       <c r="S84" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="T84" s="9"/>
       <c r="U84" s="9" t="s">
@@ -10056,7 +10043,7 @@
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
-      <c r="AB84" s="12"/>
+      <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
       <c r="AD84" s="9"/>
       <c r="AE84" s="9"/>
@@ -10066,7 +10053,7 @@
       <c r="AI84" s="9"/>
       <c r="AJ84" s="9"/>
       <c r="AK84" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL84" s="9"/>
       <c r="AM84" s="9"/>
@@ -10083,7 +10070,7 @@
         <v>43</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>45</v>
@@ -10095,16 +10082,16 @@
         <v>3</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K85" s="9" t="n">
         <v>84</v>
@@ -10114,10 +10101,10 @@
         <v>83</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P85" s="14" t="n">
         <v>0</v>
@@ -10130,7 +10117,7 @@
         <v>57</v>
       </c>
       <c r="T85" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U85" s="9" t="s">
         <v>59</v>
@@ -10143,11 +10130,11 @@
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
-      <c r="AB85" s="12" t="s">
-        <v>238</v>
+      <c r="AB85" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="AC85" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD85" s="9"/>
       <c r="AE85" s="9"/>
@@ -10157,7 +10144,7 @@
       <c r="AI85" s="9"/>
       <c r="AJ85" s="9"/>
       <c r="AK85" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL85" s="9"/>
       <c r="AM85" s="9"/>
@@ -10174,7 +10161,7 @@
         <v>43</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>45</v>
@@ -10186,37 +10173,37 @@
         <v>3</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K86" s="9" t="n">
         <v>85</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M86" s="9" t="n">
         <v>83</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P86" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R86" s="9"/>
       <c r="S86" s="9" t="s">
@@ -10234,7 +10221,7 @@
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
-      <c r="AB86" s="12"/>
+      <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
       <c r="AD86" s="9"/>
       <c r="AE86" s="9"/>
@@ -10244,7 +10231,7 @@
       <c r="AI86" s="9"/>
       <c r="AJ86" s="9"/>
       <c r="AK86" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL86" s="9"/>
       <c r="AM86" s="9"/>
@@ -10261,7 +10248,7 @@
         <v>43</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>45</v>
@@ -10273,16 +10260,16 @@
         <v>4</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K87" s="9" t="n">
         <v>86</v>
@@ -10292,16 +10279,16 @@
         <v>85</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P87" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R87" s="9"/>
       <c r="S87" s="9" t="s">
@@ -10319,23 +10306,23 @@
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
-      <c r="AB87" s="12" t="n">
+      <c r="AB87" s="20" t="n">
         <v>5449000054227</v>
       </c>
-      <c r="AC87" s="22" t="s">
+      <c r="AC87" s="20" t="s">
         <v>54</v>
       </c>
       <c r="AD87" s="9"/>
       <c r="AE87" s="9"/>
       <c r="AF87" s="12"/>
       <c r="AG87" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AH87" s="12"/>
       <c r="AI87" s="9"/>
       <c r="AJ87" s="9"/>
       <c r="AK87" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL87" s="9"/>
       <c r="AM87" s="9"/>
@@ -10343,7 +10330,7 @@
       <c r="AO87" s="9"/>
       <c r="AP87" s="9"/>
       <c r="AQ87" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10354,7 +10341,7 @@
         <v>43</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>45</v>
@@ -10366,16 +10353,16 @@
         <v>4</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K88" s="9" t="n">
         <v>87</v>
@@ -10385,16 +10372,16 @@
         <v>85</v>
       </c>
       <c r="N88" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P88" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R88" s="9"/>
       <c r="S88" s="9" t="s">
@@ -10412,23 +10399,23 @@
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
-      <c r="AB88" s="12" t="n">
+      <c r="AB88" s="20" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="AC88" s="22" t="s">
+      <c r="AC88" s="20" t="s">
         <v>70</v>
       </c>
       <c r="AD88" s="9"/>
       <c r="AE88" s="9"/>
       <c r="AF88" s="12"/>
       <c r="AG88" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AH88" s="12"/>
       <c r="AI88" s="9"/>
       <c r="AJ88" s="9"/>
       <c r="AK88" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL88" s="9"/>
       <c r="AM88" s="9"/>
@@ -10436,7 +10423,7 @@
       <c r="AO88" s="9"/>
       <c r="AP88" s="9"/>
       <c r="AQ88" s="9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10447,7 +10434,7 @@
         <v>43</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>45</v>
@@ -10459,39 +10446,39 @@
         <v>2</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K89" s="9" t="n">
         <v>88</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P89" s="14" t="n">
         <v>0.024</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="R89" s="9"/>
       <c r="S89" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="T89" s="9"/>
       <c r="U89" s="9" t="s">
@@ -10505,17 +10492,17 @@
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
-      <c r="AB89" s="12"/>
+      <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
       <c r="AD89" s="9"/>
       <c r="AE89" s="9"/>
       <c r="AF89" s="12"/>
       <c r="AG89" s="12"/>
       <c r="AH89" s="12"/>
-      <c r="AI89" s="23"/>
+      <c r="AI89" s="21"/>
       <c r="AJ89" s="9"/>
       <c r="AK89" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL89" s="9"/>
       <c r="AM89" s="9"/>
@@ -10532,7 +10519,7 @@
         <v>43</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>45</v>
@@ -10544,16 +10531,16 @@
         <v>3</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K90" s="9" t="n">
         <v>89</v>
@@ -10563,10 +10550,10 @@
         <v>88</v>
       </c>
       <c r="N90" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O90" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P90" s="14" t="n">
         <v>0</v>
@@ -10579,7 +10566,7 @@
         <v>57</v>
       </c>
       <c r="T90" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U90" s="9" t="s">
         <v>59</v>
@@ -10592,21 +10579,21 @@
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
-      <c r="AB90" s="12" t="s">
-        <v>246</v>
+      <c r="AB90" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="AC90" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD90" s="9"/>
       <c r="AE90" s="9"/>
       <c r="AF90" s="12"/>
       <c r="AG90" s="12"/>
       <c r="AH90" s="12"/>
-      <c r="AI90" s="23"/>
+      <c r="AI90" s="21"/>
       <c r="AJ90" s="9"/>
       <c r="AK90" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL90" s="9"/>
       <c r="AM90" s="9"/>
@@ -10623,7 +10610,7 @@
         <v>43</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>45</v>
@@ -10635,16 +10622,16 @@
         <v>3</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K91" s="9" t="n">
         <v>90</v>
@@ -10654,16 +10641,16 @@
         <v>88</v>
       </c>
       <c r="N91" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P91" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R91" s="9"/>
       <c r="S91" s="9" t="s">
@@ -10681,10 +10668,10 @@
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
-      <c r="AB91" s="12" t="n">
+      <c r="AB91" s="20" t="n">
         <v>5449000005489</v>
       </c>
-      <c r="AC91" s="22" t="s">
+      <c r="AC91" s="20" t="s">
         <v>107</v>
       </c>
       <c r="AD91" s="9"/>
@@ -10695,7 +10682,7 @@
       <c r="AI91" s="9"/>
       <c r="AJ91" s="9"/>
       <c r="AK91" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL91" s="9"/>
       <c r="AM91" s="9"/>
@@ -10703,7 +10690,7 @@
       <c r="AO91" s="9"/>
       <c r="AP91" s="9"/>
       <c r="AQ91" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10714,7 +10701,7 @@
         <v>43</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>45</v>
@@ -10726,39 +10713,39 @@
         <v>2</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K92" s="9" t="n">
         <v>91</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O92" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P92" s="14" t="n">
         <v>0.024</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="R92" s="9"/>
       <c r="S92" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="T92" s="9"/>
       <c r="U92" s="9" t="s">
@@ -10772,17 +10759,17 @@
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
-      <c r="AB92" s="12"/>
+      <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
       <c r="AD92" s="9"/>
       <c r="AE92" s="9"/>
       <c r="AF92" s="12"/>
       <c r="AG92" s="12"/>
       <c r="AH92" s="12"/>
-      <c r="AI92" s="23"/>
+      <c r="AI92" s="21"/>
       <c r="AJ92" s="9"/>
       <c r="AK92" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL92" s="9"/>
       <c r="AM92" s="9"/>
@@ -10799,7 +10786,7 @@
         <v>43</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>45</v>
@@ -10811,16 +10798,16 @@
         <v>3</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K93" s="9" t="n">
         <v>92</v>
@@ -10830,10 +10817,10 @@
         <v>91</v>
       </c>
       <c r="N93" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O93" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P93" s="14" t="n">
         <v>0</v>
@@ -10846,7 +10833,7 @@
         <v>57</v>
       </c>
       <c r="T93" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U93" s="9" t="s">
         <v>59</v>
@@ -10859,21 +10846,21 @@
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
-      <c r="AB93" s="12" t="s">
-        <v>252</v>
+      <c r="AB93" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="AC93" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD93" s="9"/>
       <c r="AE93" s="9"/>
       <c r="AF93" s="12"/>
       <c r="AG93" s="12"/>
       <c r="AH93" s="12"/>
-      <c r="AI93" s="23"/>
+      <c r="AI93" s="21"/>
       <c r="AJ93" s="9"/>
       <c r="AK93" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL93" s="9"/>
       <c r="AM93" s="9"/>
@@ -10890,7 +10877,7 @@
         <v>43</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>45</v>
@@ -10902,37 +10889,37 @@
         <v>3</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K94" s="9" t="n">
         <v>93</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M94" s="9" t="n">
         <v>91</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O94" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P94" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R94" s="9"/>
       <c r="S94" s="9" t="s">
@@ -10950,17 +10937,17 @@
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
-      <c r="AB94" s="12"/>
+      <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
       <c r="AD94" s="9"/>
       <c r="AE94" s="9"/>
       <c r="AF94" s="12"/>
       <c r="AG94" s="12"/>
       <c r="AH94" s="12"/>
-      <c r="AI94" s="23"/>
+      <c r="AI94" s="21"/>
       <c r="AJ94" s="9"/>
       <c r="AK94" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL94" s="9"/>
       <c r="AM94" s="9"/>
@@ -10977,7 +10964,7 @@
         <v>43</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>45</v>
@@ -10989,16 +10976,16 @@
         <v>4</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K95" s="9" t="n">
         <v>94</v>
@@ -11008,16 +10995,16 @@
         <v>93</v>
       </c>
       <c r="N95" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P95" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q95" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R95" s="9"/>
       <c r="S95" s="9" t="s">
@@ -11035,21 +11022,21 @@
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
-      <c r="AB95" s="12" t="n">
+      <c r="AB95" s="9" t="n">
         <v>4607042434877</v>
       </c>
       <c r="AC95" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD95" s="9"/>
       <c r="AE95" s="9"/>
       <c r="AF95" s="12"/>
       <c r="AG95" s="12"/>
       <c r="AH95" s="12"/>
-      <c r="AI95" s="23"/>
+      <c r="AI95" s="21"/>
       <c r="AJ95" s="9"/>
       <c r="AK95" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL95" s="9"/>
       <c r="AM95" s="9"/>
@@ -11057,7 +11044,7 @@
       <c r="AO95" s="9"/>
       <c r="AP95" s="9"/>
       <c r="AQ95" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11068,7 +11055,7 @@
         <v>43</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>45</v>
@@ -11080,16 +11067,16 @@
         <v>4</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K96" s="9" t="n">
         <v>95</v>
@@ -11099,16 +11086,16 @@
         <v>93</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P96" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q96" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R96" s="9"/>
       <c r="S96" s="9" t="s">
@@ -11126,21 +11113,21 @@
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
-      <c r="AB96" s="12" t="n">
+      <c r="AB96" s="9" t="n">
         <v>4607042434891</v>
       </c>
       <c r="AC96" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AD96" s="9"/>
       <c r="AE96" s="9"/>
       <c r="AF96" s="12"/>
       <c r="AG96" s="12"/>
       <c r="AH96" s="12"/>
-      <c r="AI96" s="23"/>
+      <c r="AI96" s="21"/>
       <c r="AJ96" s="9"/>
       <c r="AK96" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL96" s="9"/>
       <c r="AM96" s="9"/>
@@ -11148,7 +11135,7 @@
       <c r="AO96" s="9"/>
       <c r="AP96" s="9"/>
       <c r="AQ96" s="9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11159,7 +11146,7 @@
         <v>43</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>45</v>
@@ -11171,39 +11158,39 @@
         <v>2</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K97" s="9" t="n">
         <v>96</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P97" s="14" t="n">
         <v>0.024</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="R97" s="9"/>
       <c r="S97" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="T97" s="9"/>
       <c r="U97" s="9" t="s">
@@ -11217,17 +11204,17 @@
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
-      <c r="AB97" s="12"/>
+      <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
       <c r="AD97" s="9"/>
       <c r="AE97" s="9"/>
       <c r="AF97" s="12"/>
       <c r="AG97" s="12"/>
       <c r="AH97" s="12"/>
-      <c r="AI97" s="23"/>
+      <c r="AI97" s="21"/>
       <c r="AJ97" s="9"/>
       <c r="AK97" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL97" s="9"/>
       <c r="AM97" s="9"/>
@@ -11244,7 +11231,7 @@
         <v>43</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>45</v>
@@ -11256,16 +11243,16 @@
         <v>3</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K98" s="9" t="n">
         <v>97</v>
@@ -11275,10 +11262,10 @@
         <v>96</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P98" s="14" t="n">
         <v>0</v>
@@ -11291,7 +11278,7 @@
         <v>57</v>
       </c>
       <c r="T98" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U98" s="9" t="s">
         <v>59</v>
@@ -11304,21 +11291,21 @@
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
-      <c r="AB98" s="12" t="s">
-        <v>258</v>
+      <c r="AB98" s="9" t="s">
+        <v>260</v>
       </c>
       <c r="AC98" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD98" s="9"/>
       <c r="AE98" s="9"/>
       <c r="AF98" s="12"/>
       <c r="AG98" s="12"/>
       <c r="AH98" s="12"/>
-      <c r="AI98" s="23"/>
+      <c r="AI98" s="21"/>
       <c r="AJ98" s="9"/>
       <c r="AK98" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL98" s="9"/>
       <c r="AM98" s="9"/>
@@ -11335,7 +11322,7 @@
         <v>43</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>45</v>
@@ -11347,37 +11334,37 @@
         <v>3</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K99" s="9" t="n">
         <v>98</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M99" s="9" t="n">
         <v>96</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P99" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q99" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R99" s="9"/>
       <c r="S99" s="9" t="s">
@@ -11395,17 +11382,17 @@
       <c r="Y99" s="9"/>
       <c r="Z99" s="9"/>
       <c r="AA99" s="9"/>
-      <c r="AB99" s="12"/>
+      <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
       <c r="AD99" s="9"/>
       <c r="AE99" s="9"/>
       <c r="AF99" s="12"/>
       <c r="AG99" s="12"/>
       <c r="AH99" s="12"/>
-      <c r="AI99" s="23"/>
+      <c r="AI99" s="21"/>
       <c r="AJ99" s="9"/>
       <c r="AK99" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL99" s="9"/>
       <c r="AM99" s="9"/>
@@ -11422,7 +11409,7 @@
         <v>43</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>45</v>
@@ -11434,16 +11421,16 @@
         <v>4</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K100" s="9" t="n">
         <v>99</v>
@@ -11453,16 +11440,16 @@
         <v>98</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O100" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P100" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q100" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R100" s="9"/>
       <c r="S100" s="9" t="s">
@@ -11480,21 +11467,21 @@
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
-      <c r="AB100" s="12" t="n">
+      <c r="AB100" s="9" t="n">
         <v>5449000233509</v>
       </c>
       <c r="AC100" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AD100" s="9"/>
       <c r="AE100" s="9"/>
       <c r="AF100" s="12"/>
       <c r="AG100" s="12"/>
       <c r="AH100" s="12"/>
-      <c r="AI100" s="23"/>
+      <c r="AI100" s="21"/>
       <c r="AJ100" s="9"/>
       <c r="AK100" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL100" s="9"/>
       <c r="AM100" s="9"/>
@@ -11502,7 +11489,7 @@
       <c r="AO100" s="9"/>
       <c r="AP100" s="9"/>
       <c r="AQ100" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11513,7 +11500,7 @@
         <v>43</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>45</v>
@@ -11525,16 +11512,16 @@
         <v>4</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K101" s="9" t="n">
         <v>100</v>
@@ -11544,16 +11531,16 @@
         <v>98</v>
       </c>
       <c r="N101" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P101" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R101" s="9"/>
       <c r="S101" s="9" t="s">
@@ -11571,21 +11558,21 @@
       <c r="Y101" s="9"/>
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
-      <c r="AB101" s="12" t="n">
+      <c r="AB101" s="9" t="n">
         <v>5449000189318</v>
       </c>
       <c r="AC101" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AD101" s="9"/>
       <c r="AE101" s="9"/>
       <c r="AF101" s="12"/>
       <c r="AG101" s="12"/>
       <c r="AH101" s="12"/>
-      <c r="AI101" s="23"/>
+      <c r="AI101" s="21"/>
       <c r="AJ101" s="9"/>
       <c r="AK101" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL101" s="9"/>
       <c r="AM101" s="9"/>
@@ -11593,7 +11580,7 @@
       <c r="AO101" s="9"/>
       <c r="AP101" s="9"/>
       <c r="AQ101" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11604,47 +11591,47 @@
         <v>43</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F102" s="9" t="n">
         <v>2</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K102" s="9" t="n">
         <v>101</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="M102" s="24"/>
+        <v>336</v>
+      </c>
+      <c r="M102" s="22"/>
       <c r="N102" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P102" s="14" t="n">
         <v>0.03</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="R102" s="9"/>
       <c r="S102" s="9" t="s">
@@ -11652,7 +11639,7 @@
       </c>
       <c r="T102" s="9"/>
       <c r="U102" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V102" s="9"/>
       <c r="W102" s="9"/>
@@ -11662,7 +11649,7 @@
       <c r="Y102" s="9"/>
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
-      <c r="AB102" s="12"/>
+      <c r="AB102" s="9"/>
       <c r="AC102" s="9"/>
       <c r="AD102" s="9"/>
       <c r="AE102" s="9"/>
@@ -11687,28 +11674,28 @@
         <v>43</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F103" s="9" t="n">
         <v>3</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K103" s="9" t="n">
         <v>102</v>
@@ -11718,23 +11705,23 @@
         <v>101</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O103" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P103" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="R103" s="9"/>
       <c r="S103" s="9" t="s">
         <v>57</v>
       </c>
       <c r="T103" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="U103" s="9" t="s">
         <v>59</v>
@@ -11748,7 +11735,7 @@
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
       <c r="AB103" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AC103" s="9"/>
       <c r="AD103" s="9"/>
@@ -11760,7 +11747,7 @@
       <c r="AJ103" s="9"/>
       <c r="AK103" s="9"/>
       <c r="AL103" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM103" s="9"/>
       <c r="AN103" s="9"/>
@@ -11776,28 +11763,28 @@
         <v>43</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F104" s="9" t="n">
         <v>3</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K104" s="9" t="n">
         <v>103</v>
@@ -11807,23 +11794,23 @@
         <v>101</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O104" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P104" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="R104" s="9"/>
       <c r="S104" s="9" t="s">
         <v>57</v>
       </c>
       <c r="T104" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="U104" s="9" t="s">
         <v>59</v>
@@ -11837,7 +11824,7 @@
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
       <c r="AB104" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AC104" s="9"/>
       <c r="AD104" s="9"/>
@@ -11849,7 +11836,7 @@
       <c r="AJ104" s="9"/>
       <c r="AK104" s="9"/>
       <c r="AL104" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AM104" s="9"/>
       <c r="AN104" s="9"/>
@@ -11865,28 +11852,28 @@
         <v>43</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F105" s="9" t="n">
         <v>3</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K105" s="9" t="n">
         <v>104</v>
@@ -11896,23 +11883,23 @@
         <v>101</v>
       </c>
       <c r="N105" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O105" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P105" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q105" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="R105" s="9"/>
       <c r="S105" s="9" t="s">
         <v>57</v>
       </c>
       <c r="T105" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="U105" s="9" t="s">
         <v>59</v>
@@ -11926,7 +11913,7 @@
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
       <c r="AB105" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AC105" s="9"/>
       <c r="AD105" s="9"/>
@@ -11938,7 +11925,7 @@
       <c r="AJ105" s="9"/>
       <c r="AK105" s="9"/>
       <c r="AL105" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AM105" s="9"/>
       <c r="AN105" s="9"/>
@@ -11953,29 +11940,29 @@
       <c r="B106" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C106" s="25" t="s">
-        <v>329</v>
+      <c r="C106" s="23" t="s">
+        <v>331</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F106" s="9" t="n">
         <v>2</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K106" s="9" t="n">
         <v>105</v>
@@ -11983,18 +11970,18 @@
       <c r="L106" s="9" t="n">
         <v>106</v>
       </c>
-      <c r="M106" s="25"/>
+      <c r="M106" s="23"/>
       <c r="N106" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P106" s="14" t="n">
         <v>0.024</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="R106" s="9"/>
       <c r="S106" s="9" t="s">
@@ -12012,7 +11999,7 @@
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
-      <c r="AB106" s="12"/>
+      <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
       <c r="AD106" s="9"/>
       <c r="AE106" s="9"/>
@@ -12022,7 +12009,7 @@
       <c r="AI106" s="9"/>
       <c r="AJ106" s="9"/>
       <c r="AK106" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL106" s="9"/>
       <c r="AM106" s="9"/>
@@ -12039,28 +12026,28 @@
         <v>43</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F107" s="9" t="n">
         <v>3</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K107" s="9" t="n">
         <v>106</v>
@@ -12070,10 +12057,10 @@
         <v>105</v>
       </c>
       <c r="N107" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O107" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P107" s="11" t="n">
         <v>0</v>
@@ -12086,7 +12073,7 @@
         <v>57</v>
       </c>
       <c r="T107" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="U107" s="9" t="s">
         <v>59</v>
@@ -12100,10 +12087,10 @@
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC107" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AD107" s="9"/>
       <c r="AE107" s="9"/>
@@ -12113,7 +12100,7 @@
       <c r="AI107" s="9"/>
       <c r="AJ107" s="9"/>
       <c r="AK107" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL107" s="9"/>
       <c r="AM107" s="9"/>
@@ -12130,7 +12117,7 @@
         <v>43</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>45</v>
@@ -12142,43 +12129,43 @@
         <v>2</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K108" s="9" t="n">
         <v>107</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O108" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P108" s="14" t="n">
         <v>0.1</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="R108" s="9"/>
       <c r="S108" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="T108" s="9"/>
       <c r="U108" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
@@ -12186,7 +12173,7 @@
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
-      <c r="AB108" s="12"/>
+      <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
       <c r="AD108" s="9"/>
       <c r="AE108" s="9"/>
@@ -12202,7 +12189,7 @@
       <c r="AO108" s="9"/>
       <c r="AP108" s="9"/>
       <c r="AQ108" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12213,7 +12200,7 @@
         <v>43</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>45</v>
@@ -12225,16 +12212,16 @@
         <v>3</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K109" s="9" t="n">
         <v>108</v>
@@ -12244,21 +12231,21 @@
         <v>107</v>
       </c>
       <c r="N109" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O109" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P109" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="R109" s="9"/>
       <c r="S109" s="9"/>
       <c r="T109" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="U109" s="9" t="s">
         <v>59</v>
@@ -12273,13 +12260,13 @@
       </c>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB109" s="12" t="s">
-        <v>354</v>
+        <v>372</v>
+      </c>
+      <c r="AB109" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="AC109" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AD109" s="9"/>
       <c r="AE109" s="9"/>
@@ -12289,17 +12276,17 @@
       <c r="AI109" s="9"/>
       <c r="AJ109" s="9"/>
       <c r="AK109" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL109" s="9"/>
       <c r="AM109" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN109" s="9"/>
       <c r="AO109" s="9"/>
       <c r="AP109" s="9"/>
       <c r="AQ109" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12310,7 +12297,7 @@
         <v>43</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>45</v>
@@ -12322,16 +12309,16 @@
         <v>3</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K110" s="9" t="n">
         <v>165</v>
@@ -12341,21 +12328,21 @@
         <v>107</v>
       </c>
       <c r="N110" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O110" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P110" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
       <c r="T110" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="U110" s="9" t="s">
         <v>59</v>
@@ -12370,13 +12357,13 @@
       </c>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB110" s="12" t="s">
-        <v>354</v>
+        <v>372</v>
+      </c>
+      <c r="AB110" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="AC110" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AD110" s="9"/>
       <c r="AE110" s="9"/>
@@ -12386,17 +12373,17 @@
       <c r="AI110" s="9"/>
       <c r="AJ110" s="9"/>
       <c r="AK110" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL110" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AM110" s="9"/>
       <c r="AN110" s="9"/>
       <c r="AO110" s="9"/>
       <c r="AP110" s="9"/>
       <c r="AQ110" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12407,7 +12394,7 @@
         <v>43</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>45</v>
@@ -12419,16 +12406,16 @@
         <v>3</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K111" s="9" t="n">
         <v>109</v>
@@ -12438,21 +12425,21 @@
         <v>107</v>
       </c>
       <c r="N111" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O111" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P111" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R111" s="9"/>
       <c r="S111" s="9"/>
       <c r="T111" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="U111" s="9" t="s">
         <v>59</v>
@@ -12465,11 +12452,11 @@
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
-      <c r="AB111" s="12" t="s">
-        <v>354</v>
+      <c r="AB111" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="AC111" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD111" s="9"/>
       <c r="AE111" s="9"/>
@@ -12479,7 +12466,7 @@
       <c r="AI111" s="9"/>
       <c r="AJ111" s="9"/>
       <c r="AK111" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AL111" s="9"/>
       <c r="AM111" s="9"/>
@@ -12496,7 +12483,7 @@
         <v>43</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>45</v>
@@ -12508,38 +12495,38 @@
         <v>2</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K112" s="9" t="n">
         <v>110</v>
       </c>
       <c r="L112" s="9"/>
-      <c r="M112" s="25"/>
+      <c r="M112" s="23"/>
       <c r="N112" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O112" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P112" s="14" t="n">
         <v>0.025</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="R112" s="3"/>
       <c r="S112" s="9"/>
       <c r="T112" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="U112" s="9" t="s">
         <v>59</v>
@@ -12552,10 +12539,10 @@
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB112" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
+      </c>
+      <c r="AB112" s="9" t="s">
+        <v>386</v>
       </c>
       <c r="AC112" s="9"/>
       <c r="AD112" s="9"/>
@@ -12563,18 +12550,20 @@
       <c r="AF112" s="12"/>
       <c r="AG112" s="12"/>
       <c r="AH112" s="12"/>
+      <c r="AI112" s="0"/>
       <c r="AJ112" s="9"/>
       <c r="AK112" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL112" s="1" t="s">
-        <v>384</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="AM112" s="0"/>
       <c r="AN112" s="9"/>
       <c r="AO112" s="9"/>
       <c r="AP112" s="9"/>
       <c r="AQ112" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12585,7 +12574,7 @@
         <v>43</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>45</v>
@@ -12597,39 +12586,39 @@
         <v>2</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K113" s="9" t="n">
         <v>111</v>
       </c>
       <c r="L113" s="9"/>
-      <c r="M113" s="25"/>
+      <c r="M113" s="23"/>
       <c r="N113" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O113" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P113" s="14" t="n">
         <v>0.025</v>
       </c>
       <c r="Q113" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R113" s="9"/>
       <c r="S113" s="9"/>
       <c r="T113" s="9"/>
       <c r="U113" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V113" s="9"/>
       <c r="W113" s="9"/>
@@ -12641,13 +12630,13 @@
         <v>27</v>
       </c>
       <c r="AA113" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB113" s="12" t="s">
-        <v>354</v>
+        <v>369</v>
+      </c>
+      <c r="AB113" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="AC113" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AD113" s="9"/>
       <c r="AE113" s="9"/>
@@ -12657,7 +12646,7 @@
       <c r="AI113" s="9"/>
       <c r="AJ113" s="9"/>
       <c r="AK113" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL113" s="9"/>
       <c r="AM113" s="9"/>
@@ -12665,7 +12654,7 @@
       <c r="AO113" s="9"/>
       <c r="AP113" s="9"/>
       <c r="AQ113" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12676,7 +12665,7 @@
         <v>43</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>45</v>
@@ -12688,43 +12677,43 @@
         <v>2</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K114" s="9" t="n">
         <v>112</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="M114" s="25"/>
+        <v>393</v>
+      </c>
+      <c r="M114" s="23"/>
       <c r="N114" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="O114" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P114" s="14" t="n">
         <v>0.025</v>
       </c>
       <c r="Q114" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="R114" s="9"/>
       <c r="S114" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="T114" s="9"/>
       <c r="U114" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="V114" s="9" t="n">
         <v>0</v>
@@ -12736,9 +12725,9 @@
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB114" s="12"/>
+        <v>369</v>
+      </c>
+      <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
       <c r="AD114" s="9"/>
       <c r="AE114" s="9"/>
@@ -12748,7 +12737,7 @@
       <c r="AI114" s="9"/>
       <c r="AJ114" s="9"/>
       <c r="AK114" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL114" s="9"/>
       <c r="AM114" s="9"/>
@@ -12756,7 +12745,7 @@
       <c r="AO114" s="9"/>
       <c r="AP114" s="9"/>
       <c r="AQ114" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12767,7 +12756,7 @@
         <v>43</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>45</v>
@@ -12779,45 +12768,45 @@
         <v>3</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K115" s="9" t="n">
         <v>113</v>
       </c>
       <c r="L115" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M115" s="9" t="n">
         <v>112</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O115" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P115" s="11" t="n">
         <v>1</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R115" s="3"/>
       <c r="S115" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="T115" s="9"/>
       <c r="U115" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="V115" s="9" t="n">
         <v>0.8</v>
@@ -12831,9 +12820,9 @@
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB115" s="12"/>
+        <v>402</v>
+      </c>
+      <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
       <c r="AD115" s="9"/>
       <c r="AE115" s="9"/>
@@ -12844,7 +12833,7 @@
       <c r="AJ115" s="9"/>
       <c r="AK115" s="9"/>
       <c r="AL115" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM115" s="9"/>
       <c r="AN115" s="9"/>
@@ -12860,7 +12849,7 @@
         <v>43</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>45</v>
@@ -12872,16 +12861,16 @@
         <v>4</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K116" s="9" t="n">
         <v>114</v>
@@ -12891,10 +12880,10 @@
         <v>113</v>
       </c>
       <c r="N116" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O116" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P116" s="14" t="n">
         <v>0</v>
@@ -12920,7 +12909,7 @@
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
-      <c r="AB116" s="12" t="n">
+      <c r="AB116" s="9" t="n">
         <v>90494406</v>
       </c>
       <c r="AC116" s="9" t="s">
@@ -12935,7 +12924,7 @@
       <c r="AJ116" s="9"/>
       <c r="AK116" s="9"/>
       <c r="AL116" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM116" s="9"/>
       <c r="AN116" s="9"/>
@@ -12951,7 +12940,7 @@
         <v>43</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>45</v>
@@ -12963,16 +12952,16 @@
         <v>4</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K117" s="9" t="n">
         <v>115</v>
@@ -12982,10 +12971,10 @@
         <v>113</v>
       </c>
       <c r="N117" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O117" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P117" s="14" t="n">
         <v>0</v>
@@ -13012,10 +13001,10 @@
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AC117" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AD117" s="9"/>
       <c r="AE117" s="9"/>
@@ -13026,7 +13015,7 @@
       <c r="AJ117" s="9"/>
       <c r="AK117" s="9"/>
       <c r="AL117" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM117" s="9"/>
       <c r="AN117" s="9"/>
@@ -13042,7 +13031,7 @@
         <v>43</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>45</v>
@@ -13054,16 +13043,16 @@
         <v>4</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K118" s="9" t="n">
         <v>116</v>
@@ -13073,10 +13062,10 @@
         <v>113</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O118" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P118" s="14" t="n">
         <v>0</v>
@@ -13102,7 +13091,7 @@
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
-      <c r="AB118" s="12" t="n">
+      <c r="AB118" s="9" t="n">
         <v>5449000131768</v>
       </c>
       <c r="AC118" s="9" t="s">
@@ -13117,7 +13106,7 @@
       <c r="AJ118" s="9"/>
       <c r="AK118" s="9"/>
       <c r="AL118" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM118" s="9"/>
       <c r="AN118" s="9"/>
@@ -13133,7 +13122,7 @@
         <v>43</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>45</v>
@@ -13145,16 +13134,16 @@
         <v>4</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K119" s="9" t="n">
         <v>117</v>
@@ -13164,10 +13153,10 @@
         <v>113</v>
       </c>
       <c r="N119" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O119" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P119" s="14" t="n">
         <v>0</v>
@@ -13193,7 +13182,7 @@
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
-      <c r="AB119" s="12" t="n">
+      <c r="AB119" s="9" t="n">
         <v>5449000008046</v>
       </c>
       <c r="AC119" s="9" t="s">
@@ -13208,7 +13197,7 @@
       <c r="AJ119" s="9"/>
       <c r="AK119" s="9"/>
       <c r="AL119" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM119" s="9"/>
       <c r="AN119" s="9"/>
@@ -13224,7 +13213,7 @@
         <v>43</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>45</v>
@@ -13236,16 +13225,16 @@
         <v>4</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K120" s="9" t="n">
         <v>118</v>
@@ -13255,10 +13244,10 @@
         <v>113</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O120" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P120" s="14" t="n">
         <v>0</v>
@@ -13284,11 +13273,11 @@
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
-      <c r="AB120" s="12" t="n">
+      <c r="AB120" s="9" t="n">
         <v>5449000214744</v>
       </c>
       <c r="AC120" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AD120" s="9"/>
       <c r="AE120" s="9"/>
@@ -13299,7 +13288,7 @@
       <c r="AJ120" s="9"/>
       <c r="AK120" s="9"/>
       <c r="AL120" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM120" s="9"/>
       <c r="AN120" s="9"/>
@@ -13315,7 +13304,7 @@
         <v>43</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>45</v>
@@ -13327,16 +13316,16 @@
         <v>4</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K121" s="9" t="n">
         <v>119</v>
@@ -13346,10 +13335,10 @@
         <v>113</v>
       </c>
       <c r="N121" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O121" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P121" s="14" t="n">
         <v>0</v>
@@ -13375,7 +13364,7 @@
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
-      <c r="AB121" s="12" t="n">
+      <c r="AB121" s="9" t="n">
         <v>54491472</v>
       </c>
       <c r="AC121" s="9" t="s">
@@ -13390,7 +13379,7 @@
       <c r="AJ121" s="9"/>
       <c r="AK121" s="9"/>
       <c r="AL121" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM121" s="9"/>
       <c r="AN121" s="9"/>
@@ -13406,7 +13395,7 @@
         <v>43</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>45</v>
@@ -13418,16 +13407,16 @@
         <v>4</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K122" s="9" t="n">
         <v>120</v>
@@ -13437,10 +13426,10 @@
         <v>113</v>
       </c>
       <c r="N122" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O122" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P122" s="14" t="n">
         <v>0</v>
@@ -13466,7 +13455,7 @@
       <c r="Y122" s="9"/>
       <c r="Z122" s="9"/>
       <c r="AA122" s="9"/>
-      <c r="AB122" s="12" t="n">
+      <c r="AB122" s="9" t="n">
         <v>5449000054227</v>
       </c>
       <c r="AC122" s="9" t="s">
@@ -13481,7 +13470,7 @@
       <c r="AJ122" s="9"/>
       <c r="AK122" s="9"/>
       <c r="AL122" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM122" s="9"/>
       <c r="AN122" s="9"/>
@@ -13497,7 +13486,7 @@
         <v>43</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>45</v>
@@ -13509,16 +13498,16 @@
         <v>4</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K123" s="9" t="n">
         <v>121</v>
@@ -13528,10 +13517,10 @@
         <v>113</v>
       </c>
       <c r="N123" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O123" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P123" s="14" t="n">
         <v>0</v>
@@ -13557,7 +13546,7 @@
       <c r="Y123" s="9"/>
       <c r="Z123" s="9"/>
       <c r="AA123" s="9"/>
-      <c r="AB123" s="12" t="n">
+      <c r="AB123" s="9" t="n">
         <v>5449000131836</v>
       </c>
       <c r="AC123" s="9" t="s">
@@ -13572,7 +13561,7 @@
       <c r="AJ123" s="9"/>
       <c r="AK123" s="9"/>
       <c r="AL123" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM123" s="9"/>
       <c r="AN123" s="9"/>
@@ -13588,7 +13577,7 @@
         <v>43</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>45</v>
@@ -13600,16 +13589,16 @@
         <v>4</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K124" s="9" t="n">
         <v>122</v>
@@ -13619,10 +13608,10 @@
         <v>113</v>
       </c>
       <c r="N124" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O124" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P124" s="14" t="n">
         <v>0</v>
@@ -13648,7 +13637,7 @@
       <c r="Y124" s="9"/>
       <c r="Z124" s="9"/>
       <c r="AA124" s="9"/>
-      <c r="AB124" s="12" t="n">
+      <c r="AB124" s="9" t="n">
         <v>5449000133328</v>
       </c>
       <c r="AC124" s="9" t="s">
@@ -13663,7 +13652,7 @@
       <c r="AJ124" s="9"/>
       <c r="AK124" s="9"/>
       <c r="AL124" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM124" s="9"/>
       <c r="AN124" s="9"/>
@@ -13679,7 +13668,7 @@
         <v>43</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>45</v>
@@ -13691,16 +13680,16 @@
         <v>4</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K125" s="9" t="n">
         <v>123</v>
@@ -13710,10 +13699,10 @@
         <v>113</v>
       </c>
       <c r="N125" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O125" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P125" s="14" t="n">
         <v>0</v>
@@ -13739,7 +13728,7 @@
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
-      <c r="AB125" s="12" t="n">
+      <c r="AB125" s="9" t="n">
         <v>40822938</v>
       </c>
       <c r="AC125" s="9" t="s">
@@ -13754,7 +13743,7 @@
       <c r="AJ125" s="9"/>
       <c r="AK125" s="9"/>
       <c r="AL125" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM125" s="9"/>
       <c r="AN125" s="9"/>
@@ -13770,7 +13759,7 @@
         <v>43</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>45</v>
@@ -13782,16 +13771,16 @@
         <v>4</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K126" s="9" t="n">
         <v>124</v>
@@ -13801,10 +13790,10 @@
         <v>113</v>
       </c>
       <c r="N126" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O126" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P126" s="14" t="n">
         <v>0</v>
@@ -13830,7 +13819,7 @@
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
-      <c r="AB126" s="12" t="n">
+      <c r="AB126" s="9" t="n">
         <v>5449000006271</v>
       </c>
       <c r="AC126" s="9" t="s">
@@ -13845,7 +13834,7 @@
       <c r="AJ126" s="9"/>
       <c r="AK126" s="9"/>
       <c r="AL126" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM126" s="9"/>
       <c r="AN126" s="9"/>
@@ -13861,7 +13850,7 @@
         <v>43</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>45</v>
@@ -13873,16 +13862,16 @@
         <v>4</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K127" s="9" t="n">
         <v>125</v>
@@ -13892,10 +13881,10 @@
         <v>113</v>
       </c>
       <c r="N127" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O127" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P127" s="14" t="n">
         <v>0</v>
@@ -13921,11 +13910,11 @@
       <c r="Y127" s="9"/>
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
-      <c r="AB127" s="26" t="s">
-        <v>428</v>
+      <c r="AB127" s="9" t="s">
+        <v>430</v>
       </c>
       <c r="AC127" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AD127" s="9"/>
       <c r="AE127" s="9"/>
@@ -13936,7 +13925,7 @@
       <c r="AJ127" s="9"/>
       <c r="AK127" s="9"/>
       <c r="AL127" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM127" s="9"/>
       <c r="AN127" s="9"/>
@@ -13952,7 +13941,7 @@
         <v>43</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>45</v>
@@ -13964,16 +13953,16 @@
         <v>4</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K128" s="9" t="n">
         <v>126</v>
@@ -13983,10 +13972,10 @@
         <v>113</v>
       </c>
       <c r="N128" s="9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="O128" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P128" s="14" t="n">
         <v>0</v>
@@ -14012,11 +14001,11 @@
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
-      <c r="AB128" s="12" t="s">
-        <v>432</v>
+      <c r="AB128" s="9" t="s">
+        <v>434</v>
       </c>
       <c r="AC128" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AD128" s="9"/>
       <c r="AE128" s="9"/>
@@ -14027,7 +14016,7 @@
       <c r="AJ128" s="9"/>
       <c r="AK128" s="9"/>
       <c r="AL128" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM128" s="9"/>
       <c r="AN128" s="9"/>
@@ -14043,7 +14032,7 @@
         <v>43</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>45</v>
@@ -14055,16 +14044,16 @@
         <v>4</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K129" s="9" t="n">
         <v>127</v>
@@ -14074,10 +14063,10 @@
         <v>113</v>
       </c>
       <c r="N129" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O129" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P129" s="14" t="n">
         <v>0</v>
@@ -14103,7 +14092,7 @@
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
-      <c r="AB129" s="12" t="n">
+      <c r="AB129" s="9" t="n">
         <v>5060335632906</v>
       </c>
       <c r="AC129" s="9" t="s">
@@ -14118,7 +14107,7 @@
       <c r="AJ129" s="9"/>
       <c r="AK129" s="9"/>
       <c r="AL129" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM129" s="9"/>
       <c r="AN129" s="9"/>
@@ -14134,7 +14123,7 @@
         <v>43</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>45</v>
@@ -14146,16 +14135,16 @@
         <v>4</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K130" s="9" t="n">
         <v>128</v>
@@ -14165,10 +14154,10 @@
         <v>113</v>
       </c>
       <c r="N130" s="9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O130" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P130" s="14" t="n">
         <v>0</v>
@@ -14194,7 +14183,7 @@
       <c r="Y130" s="9"/>
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
-      <c r="AB130" s="12" t="n">
+      <c r="AB130" s="9" t="n">
         <v>54491069</v>
       </c>
       <c r="AC130" s="9" t="s">
@@ -14209,7 +14198,7 @@
       <c r="AJ130" s="9"/>
       <c r="AK130" s="9"/>
       <c r="AL130" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM130" s="9"/>
       <c r="AN130" s="9"/>
@@ -14225,7 +14214,7 @@
         <v>43</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>45</v>
@@ -14237,16 +14226,16 @@
         <v>4</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K131" s="9" t="n">
         <v>129</v>
@@ -14256,10 +14245,10 @@
         <v>113</v>
       </c>
       <c r="N131" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O131" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P131" s="14" t="n">
         <v>0</v>
@@ -14285,7 +14274,7 @@
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
-      <c r="AB131" s="12" t="n">
+      <c r="AB131" s="9" t="n">
         <v>5449000050939</v>
       </c>
       <c r="AC131" s="9" t="s">
@@ -14300,7 +14289,7 @@
       <c r="AJ131" s="9"/>
       <c r="AK131" s="9"/>
       <c r="AL131" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM131" s="9"/>
       <c r="AN131" s="9"/>
@@ -14316,7 +14305,7 @@
         <v>43</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>45</v>
@@ -14328,45 +14317,45 @@
         <v>3</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K132" s="9" t="n">
         <v>130</v>
       </c>
       <c r="L132" s="10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M132" s="9" t="n">
         <v>112</v>
       </c>
       <c r="N132" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O132" s="9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P132" s="11" t="n">
         <v>0.5</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R132" s="3"/>
       <c r="S132" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="T132" s="9"/>
       <c r="U132" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="V132" s="9" t="n">
         <v>0.8</v>
@@ -14380,9 +14369,9 @@
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB132" s="12"/>
+        <v>402</v>
+      </c>
+      <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
       <c r="AD132" s="9"/>
       <c r="AE132" s="9"/>
@@ -14393,7 +14382,7 @@
       <c r="AJ132" s="9"/>
       <c r="AK132" s="9"/>
       <c r="AL132" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM132" s="9"/>
       <c r="AN132" s="9"/>
@@ -14409,7 +14398,7 @@
         <v>43</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>45</v>
@@ -14421,16 +14410,16 @@
         <v>4</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K133" s="9" t="n">
         <v>131</v>
@@ -14440,10 +14429,10 @@
         <v>130</v>
       </c>
       <c r="N133" s="9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O133" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P133" s="14" t="n">
         <v>0</v>
@@ -14469,7 +14458,7 @@
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
-      <c r="AB133" s="12" t="n">
+      <c r="AB133" s="9" t="n">
         <v>5449000008046</v>
       </c>
       <c r="AC133" s="9" t="s">
@@ -14484,7 +14473,7 @@
       <c r="AJ133" s="9"/>
       <c r="AK133" s="9"/>
       <c r="AL133" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM133" s="9"/>
       <c r="AN133" s="9"/>
@@ -14500,7 +14489,7 @@
         <v>43</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>45</v>
@@ -14512,16 +14501,16 @@
         <v>4</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K134" s="9" t="n">
         <v>132</v>
@@ -14531,10 +14520,10 @@
         <v>130</v>
       </c>
       <c r="N134" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O134" s="9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P134" s="14" t="n">
         <v>0</v>
@@ -14560,7 +14549,7 @@
       <c r="Y134" s="9"/>
       <c r="Z134" s="9"/>
       <c r="AA134" s="9"/>
-      <c r="AB134" s="12" t="n">
+      <c r="AB134" s="9" t="n">
         <v>5449000000996</v>
       </c>
       <c r="AC134" s="9" t="s">
@@ -14575,7 +14564,7 @@
       <c r="AJ134" s="9"/>
       <c r="AK134" s="9"/>
       <c r="AL134" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM134" s="9"/>
       <c r="AN134" s="9"/>
@@ -14591,7 +14580,7 @@
         <v>43</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>45</v>
@@ -14603,16 +14592,16 @@
         <v>4</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K135" s="9" t="n">
         <v>133</v>
@@ -14622,10 +14611,10 @@
         <v>130</v>
       </c>
       <c r="N135" s="9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="O135" s="9" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P135" s="14" t="n">
         <v>0</v>
@@ -14651,7 +14640,7 @@
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
-      <c r="AB135" s="12" t="n">
+      <c r="AB135" s="9" t="n">
         <v>54491472</v>
       </c>
       <c r="AC135" s="9" t="s">
@@ -14666,7 +14655,7 @@
       <c r="AJ135" s="9"/>
       <c r="AK135" s="9"/>
       <c r="AL135" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM135" s="9"/>
       <c r="AN135" s="9"/>
@@ -14682,7 +14671,7 @@
         <v>43</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>45</v>
@@ -14694,16 +14683,16 @@
         <v>4</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K136" s="9" t="n">
         <v>134</v>
@@ -14713,10 +14702,10 @@
         <v>130</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O136" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P136" s="14" t="n">
         <v>0</v>
@@ -14742,7 +14731,7 @@
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
-      <c r="AB136" s="12" t="n">
+      <c r="AB136" s="9" t="n">
         <v>5449000054227</v>
       </c>
       <c r="AC136" s="9" t="s">
@@ -14757,7 +14746,7 @@
       <c r="AJ136" s="9"/>
       <c r="AK136" s="9"/>
       <c r="AL136" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM136" s="9"/>
       <c r="AN136" s="9"/>
@@ -14773,7 +14762,7 @@
         <v>43</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>45</v>
@@ -14785,16 +14774,16 @@
         <v>4</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K137" s="9" t="n">
         <v>135</v>
@@ -14804,10 +14793,10 @@
         <v>130</v>
       </c>
       <c r="N137" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="O137" s="9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P137" s="14" t="n">
         <v>0</v>
@@ -14833,7 +14822,7 @@
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
-      <c r="AB137" s="12" t="n">
+      <c r="AB137" s="9" t="n">
         <v>5449000131836</v>
       </c>
       <c r="AC137" s="9" t="s">
@@ -14848,7 +14837,7 @@
       <c r="AJ137" s="9"/>
       <c r="AK137" s="9"/>
       <c r="AL137" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM137" s="9"/>
       <c r="AN137" s="9"/>
@@ -14864,7 +14853,7 @@
         <v>43</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>45</v>
@@ -14876,16 +14865,16 @@
         <v>4</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K138" s="9" t="n">
         <v>136</v>
@@ -14895,10 +14884,10 @@
         <v>130</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="O138" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P138" s="14" t="n">
         <v>0</v>
@@ -14924,7 +14913,7 @@
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
-      <c r="AB138" s="12" t="n">
+      <c r="AB138" s="9" t="n">
         <v>5449000133328</v>
       </c>
       <c r="AC138" s="9" t="s">
@@ -14939,7 +14928,7 @@
       <c r="AJ138" s="9"/>
       <c r="AK138" s="9"/>
       <c r="AL138" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM138" s="9"/>
       <c r="AN138" s="9"/>
@@ -14955,7 +14944,7 @@
         <v>43</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>45</v>
@@ -14967,16 +14956,16 @@
         <v>4</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K139" s="9" t="n">
         <v>137</v>
@@ -14986,10 +14975,10 @@
         <v>130</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O139" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P139" s="14" t="n">
         <v>0</v>
@@ -15015,7 +15004,7 @@
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
-      <c r="AB139" s="12" t="n">
+      <c r="AB139" s="9" t="n">
         <v>5449000213631</v>
       </c>
       <c r="AC139" s="9" t="s">
@@ -15030,7 +15019,7 @@
       <c r="AJ139" s="9"/>
       <c r="AK139" s="9"/>
       <c r="AL139" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM139" s="9"/>
       <c r="AN139" s="9"/>
@@ -15046,7 +15035,7 @@
         <v>43</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>45</v>
@@ -15058,16 +15047,16 @@
         <v>4</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K140" s="9" t="n">
         <v>138</v>
@@ -15077,10 +15066,10 @@
         <v>130</v>
       </c>
       <c r="N140" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="O140" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P140" s="14" t="n">
         <v>0</v>
@@ -15106,7 +15095,7 @@
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
-      <c r="AB140" s="12" t="n">
+      <c r="AB140" s="9" t="n">
         <v>40822938</v>
       </c>
       <c r="AC140" s="9" t="s">
@@ -15121,7 +15110,7 @@
       <c r="AJ140" s="9"/>
       <c r="AK140" s="9"/>
       <c r="AL140" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM140" s="9"/>
       <c r="AN140" s="9"/>
@@ -15137,7 +15126,7 @@
         <v>43</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>45</v>
@@ -15149,16 +15138,16 @@
         <v>4</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K141" s="9" t="n">
         <v>139</v>
@@ -15168,10 +15157,10 @@
         <v>130</v>
       </c>
       <c r="N141" s="9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O141" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P141" s="14" t="n">
         <v>0</v>
@@ -15197,7 +15186,7 @@
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
-      <c r="AB141" s="12" t="n">
+      <c r="AB141" s="9" t="n">
         <v>5449000006271</v>
       </c>
       <c r="AC141" s="9" t="s">
@@ -15212,7 +15201,7 @@
       <c r="AJ141" s="9"/>
       <c r="AK141" s="9"/>
       <c r="AL141" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM141" s="9"/>
       <c r="AN141" s="9"/>
@@ -15228,7 +15217,7 @@
         <v>43</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>45</v>
@@ -15240,16 +15229,16 @@
         <v>4</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K142" s="9" t="n">
         <v>140</v>
@@ -15259,10 +15248,10 @@
         <v>130</v>
       </c>
       <c r="N142" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O142" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P142" s="14" t="n">
         <v>0</v>
@@ -15288,7 +15277,7 @@
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
-      <c r="AB142" s="12" t="n">
+      <c r="AB142" s="9" t="n">
         <v>54491069</v>
       </c>
       <c r="AC142" s="9" t="s">
@@ -15303,7 +15292,7 @@
       <c r="AJ142" s="9"/>
       <c r="AK142" s="9"/>
       <c r="AL142" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM142" s="9"/>
       <c r="AN142" s="9"/>
@@ -15319,7 +15308,7 @@
         <v>43</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>45</v>
@@ -15331,16 +15320,16 @@
         <v>4</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K143" s="9" t="n">
         <v>141</v>
@@ -15350,10 +15339,10 @@
         <v>130</v>
       </c>
       <c r="N143" s="9" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="O143" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P143" s="14" t="n">
         <v>0</v>
@@ -15379,7 +15368,7 @@
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
-      <c r="AB143" s="12" t="n">
+      <c r="AB143" s="9" t="n">
         <v>5449000050939</v>
       </c>
       <c r="AC143" s="9" t="s">
@@ -15394,7 +15383,7 @@
       <c r="AJ143" s="9"/>
       <c r="AK143" s="9"/>
       <c r="AL143" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM143" s="9"/>
       <c r="AN143" s="9"/>
@@ -15410,7 +15399,7 @@
         <v>43</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>45</v>
@@ -15422,45 +15411,45 @@
         <v>3</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K144" s="9" t="n">
         <v>142</v>
       </c>
       <c r="L144" s="10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M144" s="9" t="n">
         <v>112</v>
       </c>
       <c r="N144" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="O144" s="9" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="P144" s="11" t="n">
         <v>0.5</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R144" s="3"/>
       <c r="S144" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="T144" s="9"/>
       <c r="U144" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="V144" s="9" t="n">
         <v>0.8</v>
@@ -15474,9 +15463,9 @@
       <c r="Y144" s="9"/>
       <c r="Z144" s="9"/>
       <c r="AA144" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB144" s="12"/>
+        <v>402</v>
+      </c>
+      <c r="AB144" s="9"/>
       <c r="AC144" s="9"/>
       <c r="AD144" s="9"/>
       <c r="AE144" s="9"/>
@@ -15487,7 +15476,7 @@
       <c r="AJ144" s="9"/>
       <c r="AK144" s="9"/>
       <c r="AL144" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM144" s="9"/>
       <c r="AN144" s="9"/>
@@ -15503,7 +15492,7 @@
         <v>43</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>45</v>
@@ -15515,16 +15504,16 @@
         <v>4</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K145" s="9" t="n">
         <v>143</v>
@@ -15534,10 +15523,10 @@
         <v>142</v>
       </c>
       <c r="N145" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O145" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P145" s="14" t="n">
         <v>0</v>
@@ -15563,7 +15552,7 @@
       <c r="Y145" s="9"/>
       <c r="Z145" s="9"/>
       <c r="AA145" s="9"/>
-      <c r="AB145" s="12" t="n">
+      <c r="AB145" s="9" t="n">
         <v>90494406</v>
       </c>
       <c r="AC145" s="9" t="s">
@@ -15578,7 +15567,7 @@
       <c r="AJ145" s="9"/>
       <c r="AK145" s="9"/>
       <c r="AL145" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM145" s="9"/>
       <c r="AN145" s="9"/>
@@ -15594,7 +15583,7 @@
         <v>43</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>45</v>
@@ -15606,16 +15595,16 @@
         <v>4</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K146" s="9" t="n">
         <v>144</v>
@@ -15625,10 +15614,10 @@
         <v>142</v>
       </c>
       <c r="N146" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="O146" s="9" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P146" s="14" t="n">
         <v>0</v>
@@ -15654,7 +15643,7 @@
       <c r="Y146" s="9"/>
       <c r="Z146" s="9"/>
       <c r="AA146" s="9"/>
-      <c r="AB146" s="12" t="n">
+      <c r="AB146" s="9" t="n">
         <v>40822426</v>
       </c>
       <c r="AC146" s="9" t="s">
@@ -15669,7 +15658,7 @@
       <c r="AJ146" s="9"/>
       <c r="AK146" s="9"/>
       <c r="AL146" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM146" s="9"/>
       <c r="AN146" s="9"/>
@@ -15685,7 +15674,7 @@
         <v>43</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>45</v>
@@ -15697,16 +15686,16 @@
         <v>4</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K147" s="9" t="n">
         <v>145</v>
@@ -15716,10 +15705,10 @@
         <v>142</v>
       </c>
       <c r="N147" s="9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O147" s="9" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P147" s="14" t="n">
         <v>0</v>
@@ -15745,7 +15734,7 @@
       <c r="Y147" s="9"/>
       <c r="Z147" s="9"/>
       <c r="AA147" s="9"/>
-      <c r="AB147" s="12" t="n">
+      <c r="AB147" s="9" t="n">
         <v>5449000005489</v>
       </c>
       <c r="AC147" s="9" t="s">
@@ -15760,7 +15749,7 @@
       <c r="AJ147" s="9"/>
       <c r="AK147" s="9"/>
       <c r="AL147" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM147" s="9"/>
       <c r="AN147" s="9"/>
@@ -15776,7 +15765,7 @@
         <v>43</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>45</v>
@@ -15788,16 +15777,16 @@
         <v>4</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K148" s="9" t="n">
         <v>146</v>
@@ -15807,10 +15796,10 @@
         <v>142</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O148" s="9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P148" s="14" t="n">
         <v>0</v>
@@ -15836,7 +15825,7 @@
       <c r="Y148" s="9"/>
       <c r="Z148" s="9"/>
       <c r="AA148" s="9"/>
-      <c r="AB148" s="12" t="n">
+      <c r="AB148" s="9" t="n">
         <v>5449000152190</v>
       </c>
       <c r="AC148" s="9" t="s">
@@ -15851,7 +15840,7 @@
       <c r="AJ148" s="9"/>
       <c r="AK148" s="9"/>
       <c r="AL148" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM148" s="9"/>
       <c r="AN148" s="9"/>
@@ -15867,7 +15856,7 @@
         <v>43</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>45</v>
@@ -15879,16 +15868,16 @@
         <v>4</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K149" s="9" t="n">
         <v>147</v>
@@ -15898,10 +15887,10 @@
         <v>142</v>
       </c>
       <c r="N149" s="9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O149" s="9" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P149" s="14" t="n">
         <v>0</v>
@@ -15927,7 +15916,7 @@
       <c r="Y149" s="9"/>
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
-      <c r="AB149" s="12" t="n">
+      <c r="AB149" s="9" t="n">
         <v>5449000131768</v>
       </c>
       <c r="AC149" s="9" t="s">
@@ -15942,7 +15931,7 @@
       <c r="AJ149" s="9"/>
       <c r="AK149" s="9"/>
       <c r="AL149" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM149" s="9"/>
       <c r="AN149" s="9"/>
@@ -15958,7 +15947,7 @@
         <v>43</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>45</v>
@@ -15970,16 +15959,16 @@
         <v>4</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K150" s="9" t="n">
         <v>148</v>
@@ -15989,10 +15978,10 @@
         <v>142</v>
       </c>
       <c r="N150" s="9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O150" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P150" s="14" t="n">
         <v>0</v>
@@ -16018,11 +16007,11 @@
       <c r="Y150" s="9"/>
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
-      <c r="AB150" s="12" t="s">
-        <v>482</v>
+      <c r="AB150" s="9" t="s">
+        <v>484</v>
       </c>
       <c r="AC150" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AD150" s="9"/>
       <c r="AE150" s="9"/>
@@ -16033,7 +16022,7 @@
       <c r="AJ150" s="9"/>
       <c r="AK150" s="9"/>
       <c r="AL150" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM150" s="9"/>
       <c r="AN150" s="9"/>
@@ -16049,7 +16038,7 @@
         <v>43</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>45</v>
@@ -16061,16 +16050,16 @@
         <v>4</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K151" s="9" t="n">
         <v>149</v>
@@ -16080,10 +16069,10 @@
         <v>142</v>
       </c>
       <c r="N151" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O151" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P151" s="14" t="n">
         <v>0</v>
@@ -16109,11 +16098,11 @@
       <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
-      <c r="AB151" s="12" t="s">
-        <v>432</v>
+      <c r="AB151" s="9" t="s">
+        <v>434</v>
       </c>
       <c r="AC151" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AD151" s="9"/>
       <c r="AE151" s="9"/>
@@ -16124,7 +16113,7 @@
       <c r="AJ151" s="9"/>
       <c r="AK151" s="9"/>
       <c r="AL151" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM151" s="9"/>
       <c r="AN151" s="9"/>
@@ -16140,7 +16129,7 @@
         <v>43</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>45</v>
@@ -16152,16 +16141,16 @@
         <v>4</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K152" s="9" t="n">
         <v>150</v>
@@ -16171,10 +16160,10 @@
         <v>142</v>
       </c>
       <c r="N152" s="9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O152" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P152" s="14" t="n">
         <v>0</v>
@@ -16200,11 +16189,11 @@
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
       <c r="AA152" s="9"/>
-      <c r="AB152" s="12" t="s">
-        <v>487</v>
+      <c r="AB152" s="9" t="s">
+        <v>489</v>
       </c>
       <c r="AC152" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AD152" s="9"/>
       <c r="AE152" s="9"/>
@@ -16215,7 +16204,7 @@
       <c r="AJ152" s="9"/>
       <c r="AK152" s="9"/>
       <c r="AL152" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM152" s="9"/>
       <c r="AN152" s="9"/>
@@ -16231,7 +16220,7 @@
         <v>43</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>45</v>
@@ -16243,16 +16232,16 @@
         <v>4</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K153" s="9" t="n">
         <v>151</v>
@@ -16262,10 +16251,10 @@
         <v>142</v>
       </c>
       <c r="N153" s="9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O153" s="9" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P153" s="14" t="n">
         <v>0</v>
@@ -16291,7 +16280,7 @@
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
       <c r="AA153" s="9"/>
-      <c r="AB153" s="12" t="n">
+      <c r="AB153" s="9" t="n">
         <v>5060335632906</v>
       </c>
       <c r="AC153" s="9" t="s">
@@ -16306,7 +16295,7 @@
       <c r="AJ153" s="9"/>
       <c r="AK153" s="9"/>
       <c r="AL153" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM153" s="9"/>
       <c r="AN153" s="9"/>
@@ -16322,7 +16311,7 @@
         <v>43</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>45</v>
@@ -16334,16 +16323,16 @@
         <v>4</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K154" s="9" t="n">
         <v>152</v>
@@ -16353,10 +16342,10 @@
         <v>142</v>
       </c>
       <c r="N154" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="O154" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P154" s="14" t="n">
         <v>0</v>
@@ -16382,11 +16371,11 @@
       <c r="Y154" s="9"/>
       <c r="Z154" s="9"/>
       <c r="AA154" s="9"/>
-      <c r="AB154" s="12" t="s">
-        <v>493</v>
+      <c r="AB154" s="9" t="s">
+        <v>495</v>
       </c>
       <c r="AC154" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AD154" s="9"/>
       <c r="AE154" s="9"/>
@@ -16397,7 +16386,7 @@
       <c r="AJ154" s="9"/>
       <c r="AK154" s="9"/>
       <c r="AL154" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM154" s="9"/>
       <c r="AN154" s="9"/>
@@ -16413,7 +16402,7 @@
         <v>43</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>45</v>
@@ -16425,41 +16414,41 @@
         <v>2</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J155" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K155" s="9" t="n">
         <v>153</v>
       </c>
       <c r="L155" s="9"/>
-      <c r="M155" s="25"/>
+      <c r="M155" s="23"/>
       <c r="N155" s="9" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O155" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P155" s="14" t="n">
         <v>0.025</v>
       </c>
       <c r="Q155" s="9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="R155" s="9"/>
       <c r="S155" s="9"/>
       <c r="T155" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="U155" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V155" s="9"/>
       <c r="W155" s="9"/>
@@ -16467,10 +16456,10 @@
       <c r="Y155" s="9"/>
       <c r="Z155" s="9"/>
       <c r="AA155" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB155" s="12" t="s">
-        <v>354</v>
+        <v>369</v>
+      </c>
+      <c r="AB155" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="AC155" s="9"/>
       <c r="AD155" s="9"/>
@@ -16481,7 +16470,7 @@
       <c r="AI155" s="9"/>
       <c r="AJ155" s="9"/>
       <c r="AK155" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL155" s="9"/>
       <c r="AM155" s="9"/>
@@ -16489,7 +16478,7 @@
       <c r="AO155" s="9"/>
       <c r="AP155" s="9"/>
       <c r="AQ155" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16499,27 +16488,27 @@
       <c r="B156" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C156" s="25" t="s">
-        <v>498</v>
+      <c r="C156" s="23" t="s">
+        <v>500</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F156" s="9"/>
       <c r="G156" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K156" s="9" t="n">
         <v>154</v>
@@ -16528,24 +16517,24 @@
         <v>101</v>
       </c>
       <c r="M156" s="9"/>
-      <c r="N156" s="25" t="s">
-        <v>500</v>
+      <c r="N156" s="23" t="s">
+        <v>502</v>
       </c>
       <c r="O156" s="13" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P156" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q156" s="9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="R156" s="9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="S156" s="9"/>
       <c r="T156" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="U156" s="9"/>
       <c r="V156" s="9"/>
@@ -16578,53 +16567,53 @@
       <c r="B157" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C157" s="25" t="s">
-        <v>505</v>
+      <c r="C157" s="23" t="s">
+        <v>507</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K157" s="9" t="n">
         <v>155</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M157" s="9"/>
-      <c r="N157" s="25" t="s">
-        <v>507</v>
+      <c r="N157" s="23" t="s">
+        <v>509</v>
       </c>
       <c r="O157" s="13" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P157" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q157" s="9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="R157" s="9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="S157" s="9"/>
       <c r="T157" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="U157" s="9"/>
       <c r="V157" s="9"/>
@@ -16657,27 +16646,27 @@
       <c r="B158" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C158" s="25" t="s">
-        <v>511</v>
+      <c r="C158" s="23" t="s">
+        <v>513</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F158" s="9"/>
       <c r="G158" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K158" s="9" t="n">
         <v>156</v>
@@ -16686,24 +16675,24 @@
         <v>105</v>
       </c>
       <c r="M158" s="9"/>
-      <c r="N158" s="25" t="s">
-        <v>512</v>
+      <c r="N158" s="23" t="s">
+        <v>514</v>
       </c>
       <c r="O158" s="13" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P158" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q158" s="9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="R158" s="9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="S158" s="9"/>
       <c r="T158" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="U158" s="9"/>
       <c r="V158" s="9"/>
@@ -16736,51 +16725,51 @@
       <c r="B159" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C159" s="25" t="s">
-        <v>514</v>
+      <c r="C159" s="23" t="s">
+        <v>516</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F159" s="9"/>
       <c r="G159" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K159" s="9" t="n">
         <v>157</v>
       </c>
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
-      <c r="N159" s="25" t="s">
-        <v>515</v>
+      <c r="N159" s="23" t="s">
+        <v>517</v>
       </c>
       <c r="O159" s="9" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="P159" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q159" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="R159" s="9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="S159" s="9"/>
       <c r="T159" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="U159" s="9"/>
       <c r="V159" s="9"/>
@@ -16790,7 +16779,7 @@
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
       <c r="AB159" s="9" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AC159" s="9"/>
       <c r="AD159" s="9"/>
@@ -16801,10 +16790,10 @@
       <c r="AI159" s="9"/>
       <c r="AJ159" s="9"/>
       <c r="AK159" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL159" s="10" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AM159" s="9"/>
       <c r="AN159" s="9"/>
@@ -16819,51 +16808,51 @@
       <c r="B160" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C160" s="25" t="s">
-        <v>521</v>
+      <c r="C160" s="23" t="s">
+        <v>523</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K160" s="9" t="n">
         <v>158</v>
       </c>
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
-      <c r="N160" s="25" t="s">
-        <v>522</v>
+      <c r="N160" s="23" t="s">
+        <v>524</v>
       </c>
       <c r="O160" s="9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="P160" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q160" s="9" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="R160" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S160" s="9"/>
       <c r="T160" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="U160" s="9"/>
       <c r="V160" s="9"/>
@@ -16873,7 +16862,7 @@
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
       <c r="AB160" s="9" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AC160" s="9"/>
       <c r="AD160" s="9"/>
@@ -16885,7 +16874,7 @@
       <c r="AJ160" s="9"/>
       <c r="AK160" s="9"/>
       <c r="AL160" s="10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AM160" s="9"/>
       <c r="AN160" s="9"/>
@@ -16900,51 +16889,51 @@
       <c r="B161" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C161" s="25" t="s">
-        <v>528</v>
+      <c r="C161" s="23" t="s">
+        <v>530</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K161" s="9" t="n">
         <v>159</v>
       </c>
       <c r="L161" s="9"/>
       <c r="M161" s="9"/>
-      <c r="N161" s="25" t="s">
-        <v>529</v>
+      <c r="N161" s="23" t="s">
+        <v>531</v>
       </c>
       <c r="O161" s="9" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P161" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q161" s="9" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="R161" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S161" s="9"/>
       <c r="T161" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="U161" s="9"/>
       <c r="V161" s="9"/>
@@ -16954,7 +16943,7 @@
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AC161" s="9"/>
       <c r="AD161" s="9"/>
@@ -16966,7 +16955,7 @@
       <c r="AJ161" s="9"/>
       <c r="AK161" s="9"/>
       <c r="AL161" s="10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AM161" s="9"/>
       <c r="AN161" s="9"/>
@@ -16981,51 +16970,51 @@
       <c r="B162" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C162" s="25" t="s">
-        <v>532</v>
+      <c r="C162" s="23" t="s">
+        <v>534</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F162" s="9"/>
       <c r="G162" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I162" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K162" s="9" t="n">
         <v>160</v>
       </c>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
-      <c r="N162" s="25" t="s">
-        <v>533</v>
+      <c r="N162" s="23" t="s">
+        <v>535</v>
       </c>
       <c r="O162" s="9" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="P162" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q162" s="9" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="R162" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S162" s="9"/>
       <c r="T162" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="U162" s="9"/>
       <c r="V162" s="9"/>
@@ -17035,7 +17024,7 @@
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AC162" s="9"/>
       <c r="AD162" s="9"/>
@@ -17047,7 +17036,7 @@
       <c r="AJ162" s="9"/>
       <c r="AK162" s="9"/>
       <c r="AL162" s="10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AM162" s="9"/>
       <c r="AN162" s="9"/>
@@ -17062,27 +17051,27 @@
       <c r="B163" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C163" s="25" t="s">
-        <v>536</v>
+      <c r="C163" s="23" t="s">
+        <v>538</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F163" s="9"/>
       <c r="G163" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K163" s="9" t="n">
         <v>161</v>
@@ -17091,24 +17080,24 @@
         <v>83</v>
       </c>
       <c r="M163" s="9"/>
-      <c r="N163" s="25" t="s">
-        <v>537</v>
+      <c r="N163" s="23" t="s">
+        <v>539</v>
       </c>
       <c r="O163" s="9" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="P163" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q163" s="9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="R163" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S163" s="9"/>
       <c r="T163" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="U163" s="9"/>
       <c r="V163" s="9"/>
@@ -17118,7 +17107,7 @@
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
       <c r="AB163" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AC163" s="9"/>
       <c r="AD163" s="9"/>
@@ -17130,7 +17119,7 @@
       <c r="AJ163" s="9"/>
       <c r="AK163" s="9"/>
       <c r="AL163" s="10" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AM163" s="9"/>
       <c r="AN163" s="9"/>
@@ -17145,27 +17134,27 @@
       <c r="B164" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C164" s="25" t="s">
-        <v>536</v>
+      <c r="C164" s="23" t="s">
+        <v>538</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F164" s="9"/>
       <c r="G164" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K164" s="9" t="n">
         <v>162</v>
@@ -17174,24 +17163,24 @@
         <v>91</v>
       </c>
       <c r="M164" s="9"/>
-      <c r="N164" s="25" t="s">
-        <v>537</v>
+      <c r="N164" s="23" t="s">
+        <v>539</v>
       </c>
       <c r="O164" s="9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P164" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q164" s="9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="R164" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S164" s="9"/>
       <c r="T164" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="U164" s="9"/>
       <c r="V164" s="9"/>
@@ -17201,7 +17190,7 @@
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
       <c r="AB164" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AC164" s="9"/>
       <c r="AD164" s="9"/>
@@ -17213,7 +17202,7 @@
       <c r="AJ164" s="9"/>
       <c r="AK164" s="9"/>
       <c r="AL164" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AM164" s="9"/>
       <c r="AN164" s="9"/>
@@ -17228,27 +17217,27 @@
       <c r="B165" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C165" s="25" t="s">
-        <v>536</v>
+      <c r="C165" s="23" t="s">
+        <v>538</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K165" s="9" t="n">
         <v>163</v>
@@ -17257,24 +17246,24 @@
         <v>88</v>
       </c>
       <c r="M165" s="9"/>
-      <c r="N165" s="25" t="s">
-        <v>537</v>
+      <c r="N165" s="23" t="s">
+        <v>539</v>
       </c>
       <c r="O165" s="9" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="P165" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q165" s="9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="R165" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S165" s="9"/>
       <c r="T165" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="U165" s="9"/>
       <c r="V165" s="9"/>
@@ -17284,7 +17273,7 @@
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
       <c r="AB165" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AC165" s="9"/>
       <c r="AD165" s="9"/>
@@ -17296,7 +17285,7 @@
       <c r="AJ165" s="9"/>
       <c r="AK165" s="9"/>
       <c r="AL165" s="10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AM165" s="9"/>
       <c r="AN165" s="9"/>
@@ -17311,27 +17300,27 @@
       <c r="B166" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C166" s="25" t="s">
-        <v>536</v>
+      <c r="C166" s="23" t="s">
+        <v>538</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F166" s="9"/>
       <c r="G166" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K166" s="9" t="n">
         <v>164</v>
@@ -17340,24 +17329,24 @@
         <v>96</v>
       </c>
       <c r="M166" s="9"/>
-      <c r="N166" s="25" t="s">
-        <v>537</v>
+      <c r="N166" s="23" t="s">
+        <v>539</v>
       </c>
       <c r="O166" s="9" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="P166" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q166" s="9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="R166" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S166" s="9"/>
       <c r="T166" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="U166" s="9"/>
       <c r="V166" s="9"/>
@@ -17367,7 +17356,7 @@
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
       <c r="AB166" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AC166" s="9"/>
       <c r="AD166" s="9"/>
@@ -17379,7 +17368,7 @@
       <c r="AJ166" s="9"/>
       <c r="AK166" s="9"/>
       <c r="AL166" s="10" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AM166" s="9"/>
       <c r="AN166" s="9"/>
@@ -17569,7 +17558,7 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AH227" s="12" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17670,7 +17659,7 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AH260" s="12" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17752,8 +17741,8 @@
       <c r="AH286" s="12"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH287" s="27" t="s">
-        <v>549</v>
+      <c r="AH287" s="24" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17862,12 +17851,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -17898,49 +17887,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>552</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>553</v>
-      </c>
-      <c r="I1" s="29" t="s">
+      <c r="G1" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="M1" s="29" t="s">
+      <c r="K1" s="26" t="s">
         <v>556</v>
       </c>
+      <c r="L1" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="30" t="s">
-        <v>557</v>
+      <c r="B4" s="27" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/FT PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/FT PoS 2018.xlsx
@@ -30,7 +30,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
@@ -45,9 +45,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="560">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2295,53 +2296,53 @@
   <dimension ref="1:312"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC3" activeCellId="0" sqref="AC3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.4615384615385"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="28.8137651821862"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="116.331983805668"/>
-    <col collapsed="false" hidden="false" max="1006" min="44" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="1007" style="3" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="117.400809716599"/>
+    <col collapsed="false" hidden="false" max="1006" min="44" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="3" width="18.1012145748988"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16498,18 +16499,10 @@
         <v>501</v>
       </c>
       <c r="F156" s="9"/>
-      <c r="G156" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="H156" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I156" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="J156" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
       <c r="K156" s="9" t="n">
         <v>154</v>
       </c>
@@ -16577,18 +16570,10 @@
         <v>501</v>
       </c>
       <c r="F157" s="9"/>
-      <c r="G157" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I157" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="J157" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
       <c r="K157" s="9" t="n">
         <v>155</v>
       </c>
@@ -16656,18 +16641,10 @@
         <v>501</v>
       </c>
       <c r="F158" s="9"/>
-      <c r="G158" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="H158" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I158" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="J158" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
       <c r="K158" s="9" t="n">
         <v>156</v>
       </c>
@@ -16735,18 +16712,10 @@
         <v>501</v>
       </c>
       <c r="F159" s="9"/>
-      <c r="G159" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="H159" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I159" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="J159" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
       <c r="K159" s="9" t="n">
         <v>157</v>
       </c>
@@ -16818,18 +16787,10 @@
         <v>501</v>
       </c>
       <c r="F160" s="9"/>
-      <c r="G160" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I160" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="J160" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
       <c r="K160" s="9" t="n">
         <v>158</v>
       </c>
@@ -16899,18 +16860,10 @@
         <v>501</v>
       </c>
       <c r="F161" s="9"/>
-      <c r="G161" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I161" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="J161" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
       <c r="K161" s="9" t="n">
         <v>159</v>
       </c>
@@ -16980,18 +16933,10 @@
         <v>501</v>
       </c>
       <c r="F162" s="9"/>
-      <c r="G162" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I162" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="J162" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
       <c r="K162" s="9" t="n">
         <v>160</v>
       </c>
@@ -17061,18 +17006,10 @@
         <v>501</v>
       </c>
       <c r="F163" s="9"/>
-      <c r="G163" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="H163" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I163" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="J163" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
       <c r="K163" s="9" t="n">
         <v>161</v>
       </c>
@@ -17144,18 +17081,10 @@
         <v>501</v>
       </c>
       <c r="F164" s="9"/>
-      <c r="G164" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="H164" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I164" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="J164" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
       <c r="K164" s="9" t="n">
         <v>162</v>
       </c>
@@ -17227,18 +17156,10 @@
         <v>501</v>
       </c>
       <c r="F165" s="9"/>
-      <c r="G165" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="H165" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I165" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="J165" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
       <c r="K165" s="9" t="n">
         <v>163</v>
       </c>
@@ -17310,18 +17231,10 @@
         <v>501</v>
       </c>
       <c r="F166" s="9"/>
-      <c r="G166" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="H166" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I166" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="J166" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
       <c r="K166" s="9" t="n">
         <v>164</v>
       </c>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/FT PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/FT PoS 2018.xlsx
@@ -31,7 +31,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
@@ -46,9 +46,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="558">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1888,12 +1889,6 @@
 Fuzetea Freezer BIG
 Fuzetea Cooler-Side Rack
 Fuzetea "Грабли" Rack </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC, CAMPARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPARI</t>
   </si>
   <si>
     <t xml:space="preserve">Changes</t>
@@ -2098,7 +2093,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2192,10 +2187,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2293,56 +2284,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:312"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z167" activeCellId="0" sqref="Z167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="117.400809716599"/>
-    <col collapsed="false" hidden="false" max="1006" min="44" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="1025" min="1007" style="3" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="118.473684210526"/>
+    <col collapsed="false" hidden="false" max="1006" min="44" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="3" width="18.2105263157895"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17289,450 +17279,264 @@
       <c r="AP166" s="9"/>
       <c r="AQ166" s="9"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH167" s="12"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH168" s="12"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH169" s="12"/>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH170" s="12"/>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH171" s="12"/>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH172" s="12"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH173" s="12"/>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH174" s="12"/>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH175" s="12"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH176" s="12"/>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH177" s="12"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH178" s="12"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH179" s="12"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH180" s="12"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH181" s="12"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH182" s="12"/>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH183" s="12"/>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH184" s="12"/>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH185" s="12"/>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH186" s="12"/>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH187" s="12"/>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH188" s="12"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH189" s="12"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH190" s="12"/>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH191" s="12"/>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH192" s="12"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH193" s="12"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH194" s="12"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH195" s="12"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH196" s="12"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH197" s="12"/>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH198" s="12"/>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH199" s="12"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH200" s="12"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH201" s="12"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH202" s="12"/>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH203" s="12"/>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH204" s="12"/>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH205" s="12"/>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH206" s="12"/>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH207" s="12"/>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH208" s="12"/>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH209" s="12"/>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH210" s="12"/>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH211" s="12"/>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH212" s="12"/>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH213" s="12"/>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH214" s="12"/>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH215" s="12"/>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH216" s="12"/>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH217" s="12"/>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH218" s="12"/>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH219" s="12"/>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH220" s="12"/>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH221" s="12"/>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH222" s="12"/>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH223" s="12"/>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH224" s="12"/>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH225" s="12"/>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH226" s="12"/>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH227" s="12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH228" s="12"/>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH229" s="12"/>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH230" s="12"/>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH231" s="12"/>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH232" s="12"/>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH233" s="12"/>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH234" s="12"/>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH235" s="12"/>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH236" s="12"/>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH237" s="12"/>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH238" s="12"/>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH239" s="12"/>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH240" s="12"/>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH241" s="12"/>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH242" s="12"/>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH243" s="12"/>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH244" s="12"/>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH245" s="12"/>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH246" s="12"/>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH247" s="12"/>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH248" s="12"/>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH249" s="12"/>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH250" s="12"/>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH251" s="12"/>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH252" s="12"/>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH253" s="12"/>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH254" s="12"/>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH255" s="12"/>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH256" s="12"/>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH257" s="12"/>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH258" s="12"/>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH259" s="12"/>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH260" s="12" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH261" s="12"/>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH262" s="12"/>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH263" s="12"/>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH264" s="12"/>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH265" s="12"/>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH266" s="12"/>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH267" s="12"/>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH268" s="12"/>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH269" s="12"/>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH270" s="12"/>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH271" s="12"/>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH272" s="12"/>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH273" s="12"/>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH274" s="12"/>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH275" s="12"/>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH276" s="12"/>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH277" s="12"/>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH278" s="12"/>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH279" s="12"/>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH280" s="12"/>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH281" s="12"/>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH282" s="12"/>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH283" s="12"/>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH284" s="12"/>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH285" s="12"/>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH286" s="12"/>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH287" s="24" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH288" s="12"/>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH289" s="12"/>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH290" s="12"/>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH291" s="12"/>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH292" s="12"/>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH293" s="12"/>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH294" s="12"/>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH295" s="9"/>
-    </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH296" s="9"/>
-    </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH297" s="9"/>
-    </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH298" s="9"/>
-    </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH299" s="9"/>
-    </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH300" s="9"/>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH301" s="9"/>
-    </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH302" s="9"/>
-    </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH303" s="9"/>
-    </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH304" s="9"/>
-    </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH305" s="9"/>
-    </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH306" s="9"/>
-    </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH307" s="9"/>
-    </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH308" s="9"/>
-    </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH309" s="9"/>
-    </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH310" s="9"/>
-    </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH311" s="9"/>
-    </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH312" s="9"/>
-    </row>
+    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AQ166"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17764,12 +17568,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -17800,49 +17604,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>554</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>556</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="27" t="s">
-        <v>559</v>
+      <c r="B4" s="26" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
